--- a/nbateamsdata.xlsx
+++ b/nbateamsdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CNC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NICK朱\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64788AA-5576-433B-B5C5-CDFFC72B1228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FE2048-3D4B-4765-AC03-AEF32CE52833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="638" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League Average" sheetId="33" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="59">
   <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,98 +155,127 @@
     <t>21-22</t>
   </si>
   <si>
-    <t>FG</t>
-  </si>
-  <si>
-    <t>FGA</t>
-  </si>
-  <si>
-    <t>FG%</t>
-  </si>
-  <si>
-    <t>3P</t>
-  </si>
-  <si>
-    <t>3PA</t>
-  </si>
-  <si>
-    <t>3P%</t>
-  </si>
-  <si>
-    <t>2P</t>
-  </si>
-  <si>
-    <t>2PA</t>
-  </si>
-  <si>
-    <t>2P%</t>
-  </si>
-  <si>
-    <t>FT</t>
-  </si>
-  <si>
-    <t>FTA</t>
-  </si>
-  <si>
-    <t>FT%</t>
-  </si>
-  <si>
-    <t>ORB</t>
-  </si>
-  <si>
-    <t>DRB</t>
-  </si>
-  <si>
-    <t>TRB</t>
-  </si>
-  <si>
-    <t>AST</t>
-  </si>
-  <si>
-    <t>STL</t>
-  </si>
-  <si>
-    <t>BLK</t>
-  </si>
-  <si>
-    <t>TOV</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>PTS</t>
-  </si>
-  <si>
     <t>YEAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>G</t>
+    <t>年度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>W</t>
+    <t>場次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L</t>
+    <t>勝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PS/G</t>
+    <t>敗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PA/G</t>
+    <t>場均得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>W/L%</t>
+    <t>場均失分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GB</t>
+    <t>投籃數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RK</t>
+    <t>投籃出手數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投籃命中率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三分球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三分球出手數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三分球命中率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兩分球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兩分球出手數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兩分球命中率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罰球數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罰球出手數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罰球命中率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進攻籃板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防守籃板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總籃板數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總助攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總抄截</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總火鍋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總失誤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犯規次數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勝率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勝差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,81 +640,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9516D3-92E1-40B5-9638-71BBB01F2791}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" t="s">
-        <v>42</v>
-      </c>
       <c r="Q1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="R1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="S1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="T1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="U1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="V1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -753,7 +782,7 @@
         <v>8201</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -821,7 +850,7 @@
         <v>8419</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -889,7 +918,7 @@
         <v>8658</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -957,7 +986,7 @@
         <v>8719</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1025,7 +1054,7 @@
         <v>9119</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1093,7 +1122,7 @@
         <v>7893</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1161,7 +1190,7 @@
         <v>8071</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1237,44 +1266,107 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AC24E7-5C76-4E73-9ADA-7D2130865D83}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1288,22 +1380,85 @@
         <v>26</v>
       </c>
       <c r="E2">
+        <v>103.9</v>
+      </c>
+      <c r="F2">
+        <v>100.5</v>
+      </c>
+      <c r="G2">
+        <v>3032</v>
+      </c>
+      <c r="H2">
+        <v>6832</v>
+      </c>
+      <c r="I2">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="J2">
+        <v>933</v>
+      </c>
+      <c r="K2">
+        <v>2680</v>
+      </c>
+      <c r="L2">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="M2">
+        <v>2099</v>
+      </c>
+      <c r="N2">
+        <v>4152</v>
+      </c>
+      <c r="O2">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="P2">
+        <v>1525</v>
+      </c>
+      <c r="Q2">
+        <v>2133</v>
+      </c>
+      <c r="R2">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="S2">
+        <v>958</v>
+      </c>
+      <c r="T2">
+        <v>2624</v>
+      </c>
+      <c r="U2">
+        <v>3582</v>
+      </c>
+      <c r="V2">
+        <v>1820</v>
+      </c>
+      <c r="W2">
+        <v>777</v>
+      </c>
+      <c r="X2">
+        <v>407</v>
+      </c>
+      <c r="Y2">
+        <v>1366</v>
+      </c>
+      <c r="Z2">
+        <v>1803</v>
+      </c>
+      <c r="AA2">
+        <v>8522</v>
+      </c>
+      <c r="AB2">
         <v>0.68300000000000005</v>
       </c>
-      <c r="F2">
+      <c r="AC2">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>103.9</v>
-      </c>
-      <c r="H2">
-        <v>100.5</v>
-      </c>
-      <c r="I2">
+      <c r="AD2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1317,22 +1472,85 @@
         <v>41</v>
       </c>
       <c r="E3">
+        <v>106.5</v>
+      </c>
+      <c r="F3">
+        <v>106.4</v>
+      </c>
+      <c r="G3">
+        <v>3094</v>
+      </c>
+      <c r="H3">
+        <v>6847</v>
+      </c>
+      <c r="I3">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="J3">
+        <v>878</v>
+      </c>
+      <c r="K3">
+        <v>2533</v>
+      </c>
+      <c r="L3">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="M3">
+        <v>2216</v>
+      </c>
+      <c r="N3">
+        <v>4314</v>
+      </c>
+      <c r="O3">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="P3">
+        <v>1671</v>
+      </c>
+      <c r="Q3">
+        <v>2407</v>
+      </c>
+      <c r="R3">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="S3">
+        <v>930</v>
+      </c>
+      <c r="T3">
+        <v>2601</v>
+      </c>
+      <c r="U3">
+        <v>3531</v>
+      </c>
+      <c r="V3">
+        <v>1821</v>
+      </c>
+      <c r="W3">
+        <v>821</v>
+      </c>
+      <c r="X3">
+        <v>430</v>
+      </c>
+      <c r="Y3">
+        <v>1307</v>
+      </c>
+      <c r="Z3">
+        <v>1790</v>
+      </c>
+      <c r="AA3">
+        <v>8737</v>
+      </c>
+      <c r="AB3">
         <v>0.5</v>
       </c>
-      <c r="F3">
+      <c r="AC3">
         <v>26</v>
       </c>
-      <c r="G3">
-        <v>106.5</v>
-      </c>
-      <c r="H3">
-        <v>106.4</v>
-      </c>
-      <c r="I3">
+      <c r="AD3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1346,22 +1564,85 @@
         <v>27</v>
       </c>
       <c r="E4">
+        <v>115.3</v>
+      </c>
+      <c r="F4">
+        <v>109.6</v>
+      </c>
+      <c r="G4">
+        <v>3305</v>
+      </c>
+      <c r="H4">
+        <v>7152</v>
+      </c>
+      <c r="I4">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="J4">
+        <v>1181</v>
+      </c>
+      <c r="K4">
+        <v>3306</v>
+      </c>
+      <c r="L4">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="M4">
+        <v>2124</v>
+      </c>
+      <c r="N4">
+        <v>3846</v>
+      </c>
+      <c r="O4">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="P4">
+        <v>1667</v>
+      </c>
+      <c r="Q4">
+        <v>2177</v>
+      </c>
+      <c r="R4">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="S4">
+        <v>892</v>
+      </c>
+      <c r="T4">
+        <v>2746</v>
+      </c>
+      <c r="U4">
+        <v>3638</v>
+      </c>
+      <c r="V4">
+        <v>2070</v>
+      </c>
+      <c r="W4">
+        <v>670</v>
+      </c>
+      <c r="X4">
+        <v>352</v>
+      </c>
+      <c r="Y4">
+        <v>1240</v>
+      </c>
+      <c r="Z4">
+        <v>1634</v>
+      </c>
+      <c r="AA4">
+        <v>9458</v>
+      </c>
+      <c r="AB4">
         <v>0.67100000000000004</v>
       </c>
-      <c r="F4">
+      <c r="AC4">
         <v>6</v>
       </c>
-      <c r="G4">
-        <v>115.3</v>
-      </c>
-      <c r="H4">
-        <v>109.6</v>
-      </c>
-      <c r="I4">
+      <c r="AD4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1375,22 +1656,85 @@
         <v>17</v>
       </c>
       <c r="E5">
+        <v>112.4</v>
+      </c>
+      <c r="F5">
+        <v>103.9</v>
+      </c>
+      <c r="G5">
+        <v>3174</v>
+      </c>
+      <c r="H5">
+        <v>6906</v>
+      </c>
+      <c r="I5">
+        <v>0.46</v>
+      </c>
+      <c r="J5">
+        <v>1256</v>
+      </c>
+      <c r="K5">
+        <v>3470</v>
+      </c>
+      <c r="L5">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="M5">
+        <v>1918</v>
+      </c>
+      <c r="N5">
+        <v>3436</v>
+      </c>
+      <c r="O5">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="P5">
+        <v>1609</v>
+      </c>
+      <c r="Q5">
+        <v>2061</v>
+      </c>
+      <c r="R5">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="S5">
+        <v>739</v>
+      </c>
+      <c r="T5">
+        <v>2825</v>
+      </c>
+      <c r="U5">
+        <v>3564</v>
+      </c>
+      <c r="V5">
+        <v>1767</v>
+      </c>
+      <c r="W5">
+        <v>699</v>
+      </c>
+      <c r="X5">
+        <v>392</v>
+      </c>
+      <c r="Y5">
+        <v>1135</v>
+      </c>
+      <c r="Z5">
+        <v>1597</v>
+      </c>
+      <c r="AA5">
+        <v>9213</v>
+      </c>
+      <c r="AB5">
         <v>0.79300000000000004</v>
       </c>
-      <c r="F5" t="s">
+      <c r="AC5" t="s">
         <v>19</v>
       </c>
-      <c r="G5">
-        <v>112.4</v>
-      </c>
-      <c r="H5">
-        <v>103.9</v>
-      </c>
-      <c r="I5">
+      <c r="AD5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1404,22 +1748,85 @@
         <v>29</v>
       </c>
       <c r="E6">
+        <v>113.9</v>
+      </c>
+      <c r="F6">
+        <v>109.1</v>
+      </c>
+      <c r="G6">
+        <v>3218</v>
+      </c>
+      <c r="H6">
+        <v>7163</v>
+      </c>
+      <c r="I6">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="J6">
+        <v>1323</v>
+      </c>
+      <c r="K6">
+        <v>3721</v>
+      </c>
+      <c r="L6">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="M6">
+        <v>1895</v>
+      </c>
+      <c r="N6">
+        <v>3442</v>
+      </c>
+      <c r="O6">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="P6">
+        <v>1582</v>
+      </c>
+      <c r="Q6">
+        <v>2001</v>
+      </c>
+      <c r="R6">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="S6">
+        <v>836</v>
+      </c>
+      <c r="T6">
+        <v>2613</v>
+      </c>
+      <c r="U6">
+        <v>3449</v>
+      </c>
+      <c r="V6">
+        <v>1741</v>
+      </c>
+      <c r="W6">
+        <v>700</v>
+      </c>
+      <c r="X6">
+        <v>405</v>
+      </c>
+      <c r="Y6">
+        <v>1094</v>
+      </c>
+      <c r="Z6">
+        <v>1803</v>
+      </c>
+      <c r="AA6">
+        <v>9341</v>
+      </c>
+      <c r="AB6">
         <v>0.64600000000000002</v>
       </c>
-      <c r="F6" t="s">
+      <c r="AC6" t="s">
         <v>19</v>
       </c>
-      <c r="G6">
-        <v>113.9</v>
-      </c>
-      <c r="H6">
-        <v>109.1</v>
-      </c>
-      <c r="I6">
+      <c r="AD6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1433,22 +1840,85 @@
         <v>28</v>
       </c>
       <c r="E7">
+        <v>117.8</v>
+      </c>
+      <c r="F7">
+        <v>114.8</v>
+      </c>
+      <c r="G7">
+        <v>2936</v>
+      </c>
+      <c r="H7">
+        <v>6512</v>
+      </c>
+      <c r="I7">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="J7">
+        <v>1126</v>
+      </c>
+      <c r="K7">
+        <v>3261</v>
+      </c>
+      <c r="L7">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="M7">
+        <v>1810</v>
+      </c>
+      <c r="N7">
+        <v>3251</v>
+      </c>
+      <c r="O7">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="P7">
+        <v>1484</v>
+      </c>
+      <c r="Q7">
+        <v>1876</v>
+      </c>
+      <c r="R7">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="S7">
+        <v>704</v>
+      </c>
+      <c r="T7">
+        <v>2484</v>
+      </c>
+      <c r="U7">
+        <v>3188</v>
+      </c>
+      <c r="V7">
+        <v>1557</v>
+      </c>
+      <c r="W7">
+        <v>627</v>
+      </c>
+      <c r="X7">
+        <v>371</v>
+      </c>
+      <c r="Y7">
+        <v>1057</v>
+      </c>
+      <c r="Z7">
+        <v>1566</v>
+      </c>
+      <c r="AA7">
+        <v>8482</v>
+      </c>
+      <c r="AB7">
         <v>0.61099999999999999</v>
       </c>
-      <c r="F7" t="s">
+      <c r="AC7" t="s">
         <v>19</v>
       </c>
-      <c r="G7">
-        <v>117.8</v>
-      </c>
-      <c r="H7">
-        <v>114.8</v>
-      </c>
-      <c r="I7">
+      <c r="AD7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1462,22 +1932,85 @@
         <v>55</v>
       </c>
       <c r="E8">
+        <v>108.8</v>
+      </c>
+      <c r="F8">
+        <v>116.7</v>
+      </c>
+      <c r="G8">
+        <v>2826</v>
+      </c>
+      <c r="H8">
+        <v>6372</v>
+      </c>
+      <c r="I8">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="J8">
+        <v>992</v>
+      </c>
+      <c r="K8">
+        <v>2923</v>
+      </c>
+      <c r="L8">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="M8">
+        <v>1834</v>
+      </c>
+      <c r="N8">
+        <v>3449</v>
+      </c>
+      <c r="O8">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="P8">
+        <v>1189</v>
+      </c>
+      <c r="Q8">
+        <v>1606</v>
+      </c>
+      <c r="R8">
+        <v>0.74</v>
+      </c>
+      <c r="S8">
+        <v>671</v>
+      </c>
+      <c r="T8">
+        <v>2396</v>
+      </c>
+      <c r="U8">
+        <v>3067</v>
+      </c>
+      <c r="V8">
+        <v>1699</v>
+      </c>
+      <c r="W8">
+        <v>546</v>
+      </c>
+      <c r="X8">
+        <v>361</v>
+      </c>
+      <c r="Y8">
+        <v>1060</v>
+      </c>
+      <c r="Z8">
+        <v>1407</v>
+      </c>
+      <c r="AA8">
+        <v>7833</v>
+      </c>
+      <c r="AB8">
         <v>0.23599999999999999</v>
       </c>
-      <c r="F8">
+      <c r="AC8">
         <v>25</v>
       </c>
-      <c r="G8">
-        <v>108.8</v>
-      </c>
-      <c r="H8">
-        <v>116.7</v>
-      </c>
-      <c r="I8">
+      <c r="AD8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1491,18 +2024,81 @@
         <v>62</v>
       </c>
       <c r="E9">
+        <v>109.7</v>
+      </c>
+      <c r="F9">
+        <v>118.2</v>
+      </c>
+      <c r="G9">
+        <v>3229</v>
+      </c>
+      <c r="H9">
+        <v>7083</v>
+      </c>
+      <c r="I9">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="J9">
+        <v>1105</v>
+      </c>
+      <c r="K9">
+        <v>3170</v>
+      </c>
+      <c r="L9">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="M9">
+        <v>2124</v>
+      </c>
+      <c r="N9">
+        <v>3913</v>
+      </c>
+      <c r="O9">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="P9">
+        <v>1434</v>
+      </c>
+      <c r="Q9">
+        <v>2010</v>
+      </c>
+      <c r="R9">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="S9">
+        <v>786</v>
+      </c>
+      <c r="T9">
+        <v>2660</v>
+      </c>
+      <c r="U9">
+        <v>3446</v>
+      </c>
+      <c r="V9">
+        <v>1932</v>
+      </c>
+      <c r="W9">
+        <v>600</v>
+      </c>
+      <c r="X9">
+        <v>382</v>
+      </c>
+      <c r="Y9">
+        <v>1351</v>
+      </c>
+      <c r="Z9">
+        <v>1692</v>
+      </c>
+      <c r="AA9">
+        <v>8997</v>
+      </c>
+      <c r="AB9">
         <v>0.24399999999999999</v>
       </c>
-      <c r="F9">
+      <c r="AC9">
         <v>36</v>
       </c>
-      <c r="G9">
-        <v>109.7</v>
-      </c>
-      <c r="H9">
-        <v>118.2</v>
-      </c>
-      <c r="I9">
+      <c r="AD9">
         <v>5</v>
       </c>
     </row>
@@ -1514,44 +2110,107 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AA1F6E-3058-4CEE-B01B-B42FEB235197}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1565,22 +2224,85 @@
         <v>32</v>
       </c>
       <c r="E2">
+        <v>105.2</v>
+      </c>
+      <c r="F2">
+        <v>102.3</v>
+      </c>
+      <c r="G2">
+        <v>3255</v>
+      </c>
+      <c r="H2">
+        <v>7036</v>
+      </c>
+      <c r="I2">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="J2">
+        <v>732</v>
+      </c>
+      <c r="K2">
+        <v>2082</v>
+      </c>
+      <c r="L2">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="M2">
+        <v>2523</v>
+      </c>
+      <c r="N2">
+        <v>4954</v>
+      </c>
+      <c r="O2">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="P2">
+        <v>1386</v>
+      </c>
+      <c r="Q2">
+        <v>1843</v>
+      </c>
+      <c r="R2">
+        <v>0.752</v>
+      </c>
+      <c r="S2">
+        <v>858</v>
+      </c>
+      <c r="T2">
+        <v>2608</v>
+      </c>
+      <c r="U2">
+        <v>3466</v>
+      </c>
+      <c r="V2">
+        <v>1846</v>
+      </c>
+      <c r="W2">
+        <v>663</v>
+      </c>
+      <c r="X2">
+        <v>371</v>
+      </c>
+      <c r="Y2">
+        <v>1062</v>
+      </c>
+      <c r="Z2">
+        <v>1644</v>
+      </c>
+      <c r="AA2">
+        <v>8628</v>
+      </c>
+      <c r="AB2">
         <v>0.61</v>
       </c>
-      <c r="F2">
+      <c r="AC2">
         <v>6</v>
       </c>
-      <c r="G2">
-        <v>105.2</v>
-      </c>
-      <c r="H2">
-        <v>102.3</v>
-      </c>
-      <c r="I2">
+      <c r="AD2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1594,22 +2316,85 @@
         <v>40</v>
       </c>
       <c r="E3">
+        <v>102.3</v>
+      </c>
+      <c r="F3">
+        <v>102.6</v>
+      </c>
+      <c r="G3">
+        <v>3064</v>
+      </c>
+      <c r="H3">
+        <v>6900</v>
+      </c>
+      <c r="I3">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="J3">
+        <v>806</v>
+      </c>
+      <c r="K3">
+        <v>2342</v>
+      </c>
+      <c r="L3">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="M3">
+        <v>2258</v>
+      </c>
+      <c r="N3">
+        <v>4558</v>
+      </c>
+      <c r="O3">
+        <v>0.495</v>
+      </c>
+      <c r="P3">
+        <v>1454</v>
+      </c>
+      <c r="Q3">
+        <v>1831</v>
+      </c>
+      <c r="R3">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="S3">
+        <v>751</v>
+      </c>
+      <c r="T3">
+        <v>2781</v>
+      </c>
+      <c r="U3">
+        <v>3532</v>
+      </c>
+      <c r="V3">
+        <v>1813</v>
+      </c>
+      <c r="W3">
+        <v>560</v>
+      </c>
+      <c r="X3">
+        <v>306</v>
+      </c>
+      <c r="Y3">
+        <v>1047</v>
+      </c>
+      <c r="Z3">
+        <v>1595</v>
+      </c>
+      <c r="AA3">
+        <v>8388</v>
+      </c>
+      <c r="AB3">
         <v>0.51200000000000001</v>
       </c>
-      <c r="F3">
+      <c r="AC3">
         <v>25</v>
       </c>
-      <c r="G3">
-        <v>102.3</v>
-      </c>
-      <c r="H3">
-        <v>102.6</v>
-      </c>
-      <c r="I3">
+      <c r="AD3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1623,22 +2408,85 @@
         <v>49</v>
       </c>
       <c r="E4">
+        <v>97.9</v>
+      </c>
+      <c r="F4">
+        <v>100.8</v>
+      </c>
+      <c r="G4">
+        <v>2968</v>
+      </c>
+      <c r="H4">
+        <v>6750</v>
+      </c>
+      <c r="I4">
+        <v>0.44</v>
+      </c>
+      <c r="J4">
+        <v>878</v>
+      </c>
+      <c r="K4">
+        <v>2473</v>
+      </c>
+      <c r="L4">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="M4">
+        <v>2090</v>
+      </c>
+      <c r="N4">
+        <v>4277</v>
+      </c>
+      <c r="O4">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="P4">
+        <v>1215</v>
+      </c>
+      <c r="Q4">
+        <v>1516</v>
+      </c>
+      <c r="R4">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="S4">
+        <v>647</v>
+      </c>
+      <c r="T4">
+        <v>2516</v>
+      </c>
+      <c r="U4">
+        <v>3163</v>
+      </c>
+      <c r="V4">
+        <v>1705</v>
+      </c>
+      <c r="W4">
+        <v>614</v>
+      </c>
+      <c r="X4">
+        <v>307</v>
+      </c>
+      <c r="Y4">
+        <v>972</v>
+      </c>
+      <c r="Z4">
+        <v>1567</v>
+      </c>
+      <c r="AA4">
+        <v>8029</v>
+      </c>
+      <c r="AB4">
         <v>0.40200000000000002</v>
       </c>
-      <c r="F4">
+      <c r="AC4">
         <v>28</v>
       </c>
-      <c r="G4">
-        <v>97.9</v>
-      </c>
-      <c r="H4">
-        <v>100.8</v>
-      </c>
-      <c r="I4">
+      <c r="AD4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1652,22 +2500,85 @@
         <v>58</v>
       </c>
       <c r="E5">
+        <v>102.3</v>
+      </c>
+      <c r="F5">
+        <v>105.4</v>
+      </c>
+      <c r="G5">
+        <v>3128</v>
+      </c>
+      <c r="H5">
+        <v>7042</v>
+      </c>
+      <c r="I5">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="J5">
+        <v>967</v>
+      </c>
+      <c r="K5">
+        <v>2688</v>
+      </c>
+      <c r="L5">
+        <v>0.36</v>
+      </c>
+      <c r="M5">
+        <v>2161</v>
+      </c>
+      <c r="N5">
+        <v>4354</v>
+      </c>
+      <c r="O5">
+        <v>0.496</v>
+      </c>
+      <c r="P5">
+        <v>1167</v>
+      </c>
+      <c r="Q5">
+        <v>1530</v>
+      </c>
+      <c r="R5">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="S5">
+        <v>666</v>
+      </c>
+      <c r="T5">
+        <v>2717</v>
+      </c>
+      <c r="U5">
+        <v>3383</v>
+      </c>
+      <c r="V5">
+        <v>1858</v>
+      </c>
+      <c r="W5">
+        <v>578</v>
+      </c>
+      <c r="X5">
+        <v>310</v>
+      </c>
+      <c r="Y5">
+        <v>1008</v>
+      </c>
+      <c r="Z5">
+        <v>1578</v>
+      </c>
+      <c r="AA5">
+        <v>8390</v>
+      </c>
+      <c r="AB5">
         <v>0.29299999999999998</v>
       </c>
-      <c r="F5">
+      <c r="AC5">
         <v>41</v>
       </c>
-      <c r="G5">
-        <v>102.3</v>
-      </c>
-      <c r="H5">
-        <v>105.4</v>
-      </c>
-      <c r="I5">
+      <c r="AD5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1681,22 +2592,85 @@
         <v>49</v>
       </c>
       <c r="E6">
+        <v>108.9</v>
+      </c>
+      <c r="F6">
+        <v>110.1</v>
+      </c>
+      <c r="G6">
+        <v>3182</v>
+      </c>
+      <c r="H6">
+        <v>7122</v>
+      </c>
+      <c r="I6">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="J6">
+        <v>1022</v>
+      </c>
+      <c r="K6">
+        <v>3002</v>
+      </c>
+      <c r="L6">
+        <v>0.34</v>
+      </c>
+      <c r="M6">
+        <v>2160</v>
+      </c>
+      <c r="N6">
+        <v>4120</v>
+      </c>
+      <c r="O6">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="P6">
+        <v>1541</v>
+      </c>
+      <c r="Q6">
+        <v>2076</v>
+      </c>
+      <c r="R6">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="S6">
+        <v>832</v>
+      </c>
+      <c r="T6">
+        <v>2884</v>
+      </c>
+      <c r="U6">
+        <v>3716</v>
+      </c>
+      <c r="V6">
+        <v>1918</v>
+      </c>
+      <c r="W6">
+        <v>533</v>
+      </c>
+      <c r="X6">
+        <v>351</v>
+      </c>
+      <c r="Y6">
+        <v>1167</v>
+      </c>
+      <c r="Z6">
+        <v>1650</v>
+      </c>
+      <c r="AA6">
+        <v>8927</v>
+      </c>
+      <c r="AB6">
         <v>0.40200000000000002</v>
       </c>
-      <c r="F6">
+      <c r="AC6">
         <v>20</v>
       </c>
-      <c r="G6">
-        <v>108.9</v>
-      </c>
-      <c r="H6">
-        <v>110.1</v>
-      </c>
-      <c r="I6">
+      <c r="AD6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1710,22 +2684,85 @@
         <v>32</v>
       </c>
       <c r="E7">
+        <v>117</v>
+      </c>
+      <c r="F7">
+        <v>112.1</v>
+      </c>
+      <c r="G7">
+        <v>3124</v>
+      </c>
+      <c r="H7">
+        <v>6772</v>
+      </c>
+      <c r="I7">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="J7">
+        <v>1136</v>
+      </c>
+      <c r="K7">
+        <v>3095</v>
+      </c>
+      <c r="L7">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="M7">
+        <v>1988</v>
+      </c>
+      <c r="N7">
+        <v>3677</v>
+      </c>
+      <c r="O7">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="P7">
+        <v>1392</v>
+      </c>
+      <c r="Q7">
+        <v>1787</v>
+      </c>
+      <c r="R7">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="S7">
+        <v>791</v>
+      </c>
+      <c r="T7">
+        <v>2729</v>
+      </c>
+      <c r="U7">
+        <v>3520</v>
+      </c>
+      <c r="V7">
+        <v>1849</v>
+      </c>
+      <c r="W7">
+        <v>460</v>
+      </c>
+      <c r="X7">
+        <v>363</v>
+      </c>
+      <c r="Y7">
+        <v>953</v>
+      </c>
+      <c r="Z7">
+        <v>1462</v>
+      </c>
+      <c r="AA7">
+        <v>8776</v>
+      </c>
+      <c r="AB7">
         <v>0.57299999999999995</v>
       </c>
-      <c r="F7">
+      <c r="AC7">
         <v>2.5</v>
       </c>
-      <c r="G7">
-        <v>117</v>
-      </c>
-      <c r="H7">
-        <v>112.1</v>
-      </c>
-      <c r="I7">
+      <c r="AD7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1739,22 +2776,85 @@
         <v>30</v>
       </c>
       <c r="E8">
+        <v>112.4</v>
+      </c>
+      <c r="F8">
+        <v>110.2</v>
+      </c>
+      <c r="G8">
+        <v>2958</v>
+      </c>
+      <c r="H8">
+        <v>6287</v>
+      </c>
+      <c r="I8">
+        <v>0.47</v>
+      </c>
+      <c r="J8">
+        <v>994</v>
+      </c>
+      <c r="K8">
+        <v>2744</v>
+      </c>
+      <c r="L8">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="M8">
+        <v>1964</v>
+      </c>
+      <c r="N8">
+        <v>3543</v>
+      </c>
+      <c r="O8">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="P8">
+        <v>1186</v>
+      </c>
+      <c r="Q8">
+        <v>1524</v>
+      </c>
+      <c r="R8">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="S8">
+        <v>657</v>
+      </c>
+      <c r="T8">
+        <v>2463</v>
+      </c>
+      <c r="U8">
+        <v>3120</v>
+      </c>
+      <c r="V8">
+        <v>1647</v>
+      </c>
+      <c r="W8">
+        <v>450</v>
+      </c>
+      <c r="X8">
+        <v>311</v>
+      </c>
+      <c r="Y8">
+        <v>869</v>
+      </c>
+      <c r="Z8">
+        <v>1396</v>
+      </c>
+      <c r="AA8">
+        <v>8096</v>
+      </c>
+      <c r="AB8">
         <v>0.58299999999999996</v>
       </c>
-      <c r="F8" t="s">
+      <c r="AC8" t="s">
         <v>19</v>
       </c>
-      <c r="G8">
-        <v>112.4</v>
-      </c>
-      <c r="H8">
-        <v>110.2</v>
-      </c>
-      <c r="I8">
+      <c r="AD8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1768,18 +2868,81 @@
         <v>30</v>
       </c>
       <c r="E9">
+        <v>108</v>
+      </c>
+      <c r="F9">
+        <v>104.7</v>
+      </c>
+      <c r="G9">
+        <v>3222</v>
+      </c>
+      <c r="H9">
+        <v>6982</v>
+      </c>
+      <c r="I9">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="J9">
+        <v>1073</v>
+      </c>
+      <c r="K9">
+        <v>3063</v>
+      </c>
+      <c r="L9">
+        <v>0.35</v>
+      </c>
+      <c r="M9">
+        <v>2149</v>
+      </c>
+      <c r="N9">
+        <v>3919</v>
+      </c>
+      <c r="O9">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="P9">
+        <v>1341</v>
+      </c>
+      <c r="Q9">
+        <v>1739</v>
+      </c>
+      <c r="R9">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="S9">
+        <v>759</v>
+      </c>
+      <c r="T9">
+        <v>2769</v>
+      </c>
+      <c r="U9">
+        <v>3528</v>
+      </c>
+      <c r="V9">
+        <v>1918</v>
+      </c>
+      <c r="W9">
+        <v>552</v>
+      </c>
+      <c r="X9">
+        <v>325</v>
+      </c>
+      <c r="Y9">
+        <v>1025</v>
+      </c>
+      <c r="Z9">
+        <v>1612</v>
+      </c>
+      <c r="AA9">
+        <v>8858</v>
+      </c>
+      <c r="AB9">
         <v>0.63400000000000001</v>
       </c>
-      <c r="F9">
+      <c r="AC9">
         <v>4</v>
       </c>
-      <c r="G9">
-        <v>108</v>
-      </c>
-      <c r="H9">
-        <v>104.7</v>
-      </c>
-      <c r="I9">
+      <c r="AD9">
         <v>2</v>
       </c>
     </row>
@@ -1791,44 +2954,107 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCEB2296-C3BA-4F6D-945F-A60A4E8501C7}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1842,22 +3068,85 @@
         <v>61</v>
       </c>
       <c r="E2">
+        <v>98.5</v>
+      </c>
+      <c r="F2">
+        <v>105.3</v>
+      </c>
+      <c r="G2">
+        <v>3054</v>
+      </c>
+      <c r="H2">
+        <v>7020</v>
+      </c>
+      <c r="I2">
+        <v>0.435</v>
+      </c>
+      <c r="J2">
+        <v>532</v>
+      </c>
+      <c r="K2">
+        <v>1546</v>
+      </c>
+      <c r="L2">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="M2">
+        <v>2522</v>
+      </c>
+      <c r="N2">
+        <v>5474</v>
+      </c>
+      <c r="O2">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="P2">
+        <v>1433</v>
+      </c>
+      <c r="Q2">
+        <v>1935</v>
+      </c>
+      <c r="R2">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="S2">
+        <v>952</v>
+      </c>
+      <c r="T2">
+        <v>2647</v>
+      </c>
+      <c r="U2">
+        <v>3599</v>
+      </c>
+      <c r="V2">
+        <v>1715</v>
+      </c>
+      <c r="W2">
+        <v>578</v>
+      </c>
+      <c r="X2">
+        <v>366</v>
+      </c>
+      <c r="Y2">
+        <v>1086</v>
+      </c>
+      <c r="Z2">
+        <v>1741</v>
+      </c>
+      <c r="AA2">
+        <v>8073</v>
+      </c>
+      <c r="AB2">
         <v>0.25600000000000001</v>
       </c>
-      <c r="F2">
+      <c r="AC2">
         <v>46</v>
       </c>
-      <c r="G2">
-        <v>98.5</v>
-      </c>
-      <c r="H2">
-        <v>105.3</v>
-      </c>
-      <c r="I2">
+      <c r="AD2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1871,22 +3160,85 @@
         <v>65</v>
       </c>
       <c r="E3">
+        <v>97.3</v>
+      </c>
+      <c r="F3">
+        <v>106.9</v>
+      </c>
+      <c r="G3">
+        <v>2880</v>
+      </c>
+      <c r="H3">
+        <v>6956</v>
+      </c>
+      <c r="I3">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="J3">
+        <v>639</v>
+      </c>
+      <c r="K3">
+        <v>2016</v>
+      </c>
+      <c r="L3">
+        <v>0.317</v>
+      </c>
+      <c r="M3">
+        <v>2241</v>
+      </c>
+      <c r="N3">
+        <v>4940</v>
+      </c>
+      <c r="O3">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="P3">
+        <v>1583</v>
+      </c>
+      <c r="Q3">
+        <v>2028</v>
+      </c>
+      <c r="R3">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="S3">
+        <v>878</v>
+      </c>
+      <c r="T3">
+        <v>2645</v>
+      </c>
+      <c r="U3">
+        <v>3523</v>
+      </c>
+      <c r="V3">
+        <v>1478</v>
+      </c>
+      <c r="W3">
+        <v>593</v>
+      </c>
+      <c r="X3">
+        <v>337</v>
+      </c>
+      <c r="Y3">
+        <v>1124</v>
+      </c>
+      <c r="Z3">
+        <v>1662</v>
+      </c>
+      <c r="AA3">
+        <v>7982</v>
+      </c>
+      <c r="AB3">
         <v>0.20699999999999999</v>
       </c>
-      <c r="F3">
+      <c r="AC3">
         <v>56</v>
       </c>
-      <c r="G3">
-        <v>97.3</v>
-      </c>
-      <c r="H3">
-        <v>106.9</v>
-      </c>
-      <c r="I3">
+      <c r="AD3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1900,22 +3252,85 @@
         <v>56</v>
       </c>
       <c r="E4">
+        <v>104.6</v>
+      </c>
+      <c r="F4">
+        <v>111.5</v>
+      </c>
+      <c r="G4">
+        <v>3224</v>
+      </c>
+      <c r="H4">
+        <v>7164</v>
+      </c>
+      <c r="I4">
+        <v>0.45</v>
+      </c>
+      <c r="J4">
+        <v>730</v>
+      </c>
+      <c r="K4">
+        <v>2110</v>
+      </c>
+      <c r="L4">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="M4">
+        <v>2494</v>
+      </c>
+      <c r="N4">
+        <v>5054</v>
+      </c>
+      <c r="O4">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="P4">
+        <v>1397</v>
+      </c>
+      <c r="Q4">
+        <v>1853</v>
+      </c>
+      <c r="R4">
+        <v>0.754</v>
+      </c>
+      <c r="S4">
+        <v>933</v>
+      </c>
+      <c r="T4">
+        <v>2636</v>
+      </c>
+      <c r="U4">
+        <v>3569</v>
+      </c>
+      <c r="V4">
+        <v>1716</v>
+      </c>
+      <c r="W4">
+        <v>674</v>
+      </c>
+      <c r="X4">
+        <v>320</v>
+      </c>
+      <c r="Y4">
+        <v>1243</v>
+      </c>
+      <c r="Z4">
+        <v>1698</v>
+      </c>
+      <c r="AA4">
+        <v>8575</v>
+      </c>
+      <c r="AB4">
         <v>0.317</v>
       </c>
-      <c r="F4">
+      <c r="AC4">
         <v>41</v>
       </c>
-      <c r="G4">
-        <v>104.6</v>
-      </c>
-      <c r="H4">
-        <v>111.5</v>
-      </c>
-      <c r="I4">
+      <c r="AD4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1929,22 +3344,85 @@
         <v>47</v>
       </c>
       <c r="E5">
+        <v>108.1</v>
+      </c>
+      <c r="F5">
+        <v>109.6</v>
+      </c>
+      <c r="G5">
+        <v>3338</v>
+      </c>
+      <c r="H5">
+        <v>7248</v>
+      </c>
+      <c r="I5">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="J5">
+        <v>822</v>
+      </c>
+      <c r="K5">
+        <v>2384</v>
+      </c>
+      <c r="L5">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="M5">
+        <v>2516</v>
+      </c>
+      <c r="N5">
+        <v>4864</v>
+      </c>
+      <c r="O5">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="P5">
+        <v>1364</v>
+      </c>
+      <c r="Q5">
+        <v>1910</v>
+      </c>
+      <c r="R5">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="S5">
+        <v>876</v>
+      </c>
+      <c r="T5">
+        <v>2927</v>
+      </c>
+      <c r="U5">
+        <v>3803</v>
+      </c>
+      <c r="V5">
+        <v>1949</v>
+      </c>
+      <c r="W5">
+        <v>633</v>
+      </c>
+      <c r="X5">
+        <v>388</v>
+      </c>
+      <c r="Y5">
+        <v>1295</v>
+      </c>
+      <c r="Z5">
+        <v>1736</v>
+      </c>
+      <c r="AA5">
+        <v>8862</v>
+      </c>
+      <c r="AB5">
         <v>0.42699999999999999</v>
       </c>
-      <c r="F5">
+      <c r="AC5">
         <v>23</v>
       </c>
-      <c r="G5">
-        <v>108.1</v>
-      </c>
-      <c r="H5">
-        <v>109.6</v>
-      </c>
-      <c r="I5">
+      <c r="AD5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1958,22 +3436,85 @@
         <v>45</v>
       </c>
       <c r="E6">
+        <v>111.8</v>
+      </c>
+      <c r="F6">
+        <v>113.5</v>
+      </c>
+      <c r="G6">
+        <v>3491</v>
+      </c>
+      <c r="H6">
+        <v>7425</v>
+      </c>
+      <c r="I6">
+        <v>0.47</v>
+      </c>
+      <c r="J6">
+        <v>847</v>
+      </c>
+      <c r="K6">
+        <v>2541</v>
+      </c>
+      <c r="L6">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="M6">
+        <v>2644</v>
+      </c>
+      <c r="N6">
+        <v>4884</v>
+      </c>
+      <c r="O6">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="P6">
+        <v>1336</v>
+      </c>
+      <c r="Q6">
+        <v>1910</v>
+      </c>
+      <c r="R6">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="S6">
+        <v>835</v>
+      </c>
+      <c r="T6">
+        <v>2985</v>
+      </c>
+      <c r="U6">
+        <v>3820</v>
+      </c>
+      <c r="V6">
+        <v>2096</v>
+      </c>
+      <c r="W6">
+        <v>618</v>
+      </c>
+      <c r="X6">
+        <v>440</v>
+      </c>
+      <c r="Y6">
+        <v>1284</v>
+      </c>
+      <c r="Z6">
+        <v>1701</v>
+      </c>
+      <c r="AA6">
+        <v>9165</v>
+      </c>
+      <c r="AB6">
         <v>0.45100000000000001</v>
       </c>
-      <c r="F6">
+      <c r="AC6">
         <v>20</v>
       </c>
-      <c r="G6">
-        <v>111.8</v>
-      </c>
-      <c r="H6">
-        <v>113.5</v>
-      </c>
-      <c r="I6">
+      <c r="AD6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1987,22 +3528,85 @@
         <v>19</v>
       </c>
       <c r="E7">
+        <v>113.4</v>
+      </c>
+      <c r="F7">
+        <v>107.6</v>
+      </c>
+      <c r="G7">
+        <v>3006</v>
+      </c>
+      <c r="H7">
+        <v>6269</v>
+      </c>
+      <c r="I7">
+        <v>0.48</v>
+      </c>
+      <c r="J7">
+        <v>782</v>
+      </c>
+      <c r="K7">
+        <v>2242</v>
+      </c>
+      <c r="L7">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="M7">
+        <v>2224</v>
+      </c>
+      <c r="N7">
+        <v>4027</v>
+      </c>
+      <c r="O7">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="P7">
+        <v>1260</v>
+      </c>
+      <c r="Q7">
+        <v>1728</v>
+      </c>
+      <c r="R7">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="S7">
+        <v>757</v>
+      </c>
+      <c r="T7">
+        <v>2490</v>
+      </c>
+      <c r="U7">
+        <v>3247</v>
+      </c>
+      <c r="V7">
+        <v>1803</v>
+      </c>
+      <c r="W7">
+        <v>612</v>
+      </c>
+      <c r="X7">
+        <v>468</v>
+      </c>
+      <c r="Y7">
+        <v>1077</v>
+      </c>
+      <c r="Z7">
+        <v>1471</v>
+      </c>
+      <c r="AA7">
+        <v>8054</v>
+      </c>
+      <c r="AB7">
         <v>0.73199999999999998</v>
       </c>
-      <c r="F7" t="s">
+      <c r="AC7" t="s">
         <v>19</v>
       </c>
-      <c r="G7">
-        <v>113.4</v>
-      </c>
-      <c r="H7">
-        <v>107.6</v>
-      </c>
-      <c r="I7">
+      <c r="AD7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2016,22 +3620,85 @@
         <v>30</v>
       </c>
       <c r="E8">
+        <v>109.5</v>
+      </c>
+      <c r="F8">
+        <v>106.8</v>
+      </c>
+      <c r="G8">
+        <v>2925</v>
+      </c>
+      <c r="H8">
+        <v>6197</v>
+      </c>
+      <c r="I8">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="J8">
+        <v>796</v>
+      </c>
+      <c r="K8">
+        <v>2248</v>
+      </c>
+      <c r="L8">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="M8">
+        <v>2129</v>
+      </c>
+      <c r="N8">
+        <v>3949</v>
+      </c>
+      <c r="O8">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="P8">
+        <v>1241</v>
+      </c>
+      <c r="Q8">
+        <v>1679</v>
+      </c>
+      <c r="R8">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="S8">
+        <v>695</v>
+      </c>
+      <c r="T8">
+        <v>2490</v>
+      </c>
+      <c r="U8">
+        <v>3185</v>
+      </c>
+      <c r="V8">
+        <v>1775</v>
+      </c>
+      <c r="W8">
+        <v>562</v>
+      </c>
+      <c r="X8">
+        <v>386</v>
+      </c>
+      <c r="Y8">
+        <v>1095</v>
+      </c>
+      <c r="Z8">
+        <v>1377</v>
+      </c>
+      <c r="AA8">
+        <v>7887</v>
+      </c>
+      <c r="AB8">
         <v>0.58299999999999996</v>
       </c>
-      <c r="F8">
+      <c r="AC8">
         <v>9</v>
       </c>
-      <c r="G8">
-        <v>109.5</v>
-      </c>
-      <c r="H8">
-        <v>106.8</v>
-      </c>
-      <c r="I8">
+      <c r="AD8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2045,18 +3712,81 @@
         <v>49</v>
       </c>
       <c r="E9">
+        <v>112.1</v>
+      </c>
+      <c r="F9">
+        <v>115.1</v>
+      </c>
+      <c r="G9">
+        <v>3415</v>
+      </c>
+      <c r="H9">
+        <v>7279</v>
+      </c>
+      <c r="I9">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="J9">
+        <v>982</v>
+      </c>
+      <c r="K9">
+        <v>2826</v>
+      </c>
+      <c r="L9">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="M9">
+        <v>2433</v>
+      </c>
+      <c r="N9">
+        <v>4453</v>
+      </c>
+      <c r="O9">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="P9">
+        <v>1380</v>
+      </c>
+      <c r="Q9">
+        <v>1884</v>
+      </c>
+      <c r="R9">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="S9">
+        <v>782</v>
+      </c>
+      <c r="T9">
+        <v>2826</v>
+      </c>
+      <c r="U9">
+        <v>3608</v>
+      </c>
+      <c r="V9">
+        <v>1968</v>
+      </c>
+      <c r="W9">
+        <v>626</v>
+      </c>
+      <c r="X9">
+        <v>425</v>
+      </c>
+      <c r="Y9">
+        <v>1191</v>
+      </c>
+      <c r="Z9">
+        <v>1654</v>
+      </c>
+      <c r="AA9">
+        <v>9192</v>
+      </c>
+      <c r="AB9">
         <v>0.40200000000000002</v>
       </c>
-      <c r="F9">
+      <c r="AC9">
         <v>31</v>
       </c>
-      <c r="G9">
-        <v>112.1</v>
-      </c>
-      <c r="H9">
-        <v>115.1</v>
-      </c>
-      <c r="I9">
+      <c r="AD9">
         <v>4</v>
       </c>
     </row>
@@ -2068,44 +3798,107 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A73BD18-32D4-4F13-903B-97985E32CF50}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2119,22 +3912,85 @@
         <v>53</v>
       </c>
       <c r="E2">
+        <v>101.3</v>
+      </c>
+      <c r="F2">
+        <v>105</v>
+      </c>
+      <c r="G2">
+        <v>3010</v>
+      </c>
+      <c r="H2">
+        <v>6617</v>
+      </c>
+      <c r="I2">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="J2">
+        <v>461</v>
+      </c>
+      <c r="K2">
+        <v>1350</v>
+      </c>
+      <c r="L2">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="M2">
+        <v>2549</v>
+      </c>
+      <c r="N2">
+        <v>5267</v>
+      </c>
+      <c r="O2">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="P2">
+        <v>1829</v>
+      </c>
+      <c r="Q2">
+        <v>2400</v>
+      </c>
+      <c r="R2">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="S2">
+        <v>895</v>
+      </c>
+      <c r="T2">
+        <v>2728</v>
+      </c>
+      <c r="U2">
+        <v>3623</v>
+      </c>
+      <c r="V2">
+        <v>1667</v>
+      </c>
+      <c r="W2">
+        <v>550</v>
+      </c>
+      <c r="X2">
+        <v>324</v>
+      </c>
+      <c r="Y2">
+        <v>1333</v>
+      </c>
+      <c r="Z2">
+        <v>1696</v>
+      </c>
+      <c r="AA2">
+        <v>8310</v>
+      </c>
+      <c r="AB2">
         <v>0.35399999999999998</v>
       </c>
-      <c r="F2">
+      <c r="AC2">
         <v>38</v>
       </c>
-      <c r="G2">
-        <v>101.3</v>
-      </c>
-      <c r="H2">
-        <v>105</v>
-      </c>
-      <c r="I2">
+      <c r="AD2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2148,22 +4004,85 @@
         <v>49</v>
       </c>
       <c r="E3">
+        <v>106.6</v>
+      </c>
+      <c r="F3">
+        <v>109.1</v>
+      </c>
+      <c r="G3">
+        <v>3283</v>
+      </c>
+      <c r="H3">
+        <v>7083</v>
+      </c>
+      <c r="I3">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="J3">
+        <v>660</v>
+      </c>
+      <c r="K3">
+        <v>1839</v>
+      </c>
+      <c r="L3">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="M3">
+        <v>2623</v>
+      </c>
+      <c r="N3">
+        <v>5244</v>
+      </c>
+      <c r="O3">
+        <v>0.5</v>
+      </c>
+      <c r="P3">
+        <v>1514</v>
+      </c>
+      <c r="Q3">
+        <v>2089</v>
+      </c>
+      <c r="R3">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="S3">
+        <v>868</v>
+      </c>
+      <c r="T3">
+        <v>2760</v>
+      </c>
+      <c r="U3">
+        <v>3628</v>
+      </c>
+      <c r="V3">
+        <v>2009</v>
+      </c>
+      <c r="W3">
+        <v>733</v>
+      </c>
+      <c r="X3">
+        <v>368</v>
+      </c>
+      <c r="Y3">
+        <v>1326</v>
+      </c>
+      <c r="Z3">
+        <v>1676</v>
+      </c>
+      <c r="AA3">
+        <v>8740</v>
+      </c>
+      <c r="AB3">
         <v>0.40200000000000002</v>
       </c>
-      <c r="F3">
+      <c r="AC3">
         <v>40</v>
       </c>
-      <c r="G3">
-        <v>106.6</v>
-      </c>
-      <c r="H3">
-        <v>109.1</v>
-      </c>
-      <c r="I3">
+      <c r="AD3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2177,22 +4096,85 @@
         <v>50</v>
       </c>
       <c r="E4">
+        <v>102.8</v>
+      </c>
+      <c r="F4">
+        <v>106.7</v>
+      </c>
+      <c r="G4">
+        <v>3105</v>
+      </c>
+      <c r="H4">
+        <v>6734</v>
+      </c>
+      <c r="I4">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="J4">
+        <v>737</v>
+      </c>
+      <c r="K4">
+        <v>1960</v>
+      </c>
+      <c r="L4">
+        <v>0.376</v>
+      </c>
+      <c r="M4">
+        <v>2368</v>
+      </c>
+      <c r="N4">
+        <v>4774</v>
+      </c>
+      <c r="O4">
+        <v>0.496</v>
+      </c>
+      <c r="P4">
+        <v>1483</v>
+      </c>
+      <c r="Q4">
+        <v>1913</v>
+      </c>
+      <c r="R4">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="S4">
+        <v>715</v>
+      </c>
+      <c r="T4">
+        <v>2652</v>
+      </c>
+      <c r="U4">
+        <v>3367</v>
+      </c>
+      <c r="V4">
+        <v>1844</v>
+      </c>
+      <c r="W4">
+        <v>627</v>
+      </c>
+      <c r="X4">
+        <v>324</v>
+      </c>
+      <c r="Y4">
+        <v>1201</v>
+      </c>
+      <c r="Z4">
+        <v>1667</v>
+      </c>
+      <c r="AA4">
+        <v>8430</v>
+      </c>
+      <c r="AB4">
         <v>0.39</v>
       </c>
-      <c r="F4">
+      <c r="AC4">
         <v>35</v>
       </c>
-      <c r="G4">
-        <v>102.8</v>
-      </c>
-      <c r="H4">
-        <v>106.7</v>
-      </c>
-      <c r="I4">
+      <c r="AD4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2206,22 +4188,85 @@
         <v>55</v>
       </c>
       <c r="E5">
+        <v>98.8</v>
+      </c>
+      <c r="F5">
+        <v>105.8</v>
+      </c>
+      <c r="G5">
+        <v>3179</v>
+      </c>
+      <c r="H5">
+        <v>7063</v>
+      </c>
+      <c r="I5">
+        <v>0.45</v>
+      </c>
+      <c r="J5">
+        <v>738</v>
+      </c>
+      <c r="K5">
+        <v>1967</v>
+      </c>
+      <c r="L5">
+        <v>0.375</v>
+      </c>
+      <c r="M5">
+        <v>2441</v>
+      </c>
+      <c r="N5">
+        <v>5096</v>
+      </c>
+      <c r="O5">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="P5">
+        <v>1008</v>
+      </c>
+      <c r="Q5">
+        <v>1371</v>
+      </c>
+      <c r="R5">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="S5">
+        <v>777</v>
+      </c>
+      <c r="T5">
+        <v>2578</v>
+      </c>
+      <c r="U5">
+        <v>3355</v>
+      </c>
+      <c r="V5">
+        <v>1768</v>
+      </c>
+      <c r="W5">
+        <v>643</v>
+      </c>
+      <c r="X5">
+        <v>340</v>
+      </c>
+      <c r="Y5">
+        <v>1125</v>
+      </c>
+      <c r="Z5">
+        <v>1639</v>
+      </c>
+      <c r="AA5">
+        <v>8104</v>
+      </c>
+      <c r="AB5">
         <v>0.32900000000000001</v>
       </c>
-      <c r="F5">
+      <c r="AC5">
         <v>31</v>
       </c>
-      <c r="G5">
-        <v>98.8</v>
-      </c>
-      <c r="H5">
-        <v>105.8</v>
-      </c>
-      <c r="I5">
+      <c r="AD5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2235,22 +4280,85 @@
         <v>43</v>
       </c>
       <c r="E6">
+        <v>114.2</v>
+      </c>
+      <c r="F6">
+        <v>115.3</v>
+      </c>
+      <c r="G6">
+        <v>3541</v>
+      </c>
+      <c r="H6">
+        <v>7637</v>
+      </c>
+      <c r="I6">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="J6">
+        <v>927</v>
+      </c>
+      <c r="K6">
+        <v>2455</v>
+      </c>
+      <c r="L6">
+        <v>0.378</v>
+      </c>
+      <c r="M6">
+        <v>2614</v>
+      </c>
+      <c r="N6">
+        <v>5182</v>
+      </c>
+      <c r="O6">
+        <v>0.504</v>
+      </c>
+      <c r="P6">
+        <v>1354</v>
+      </c>
+      <c r="Q6">
+        <v>1865</v>
+      </c>
+      <c r="R6">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="S6">
+        <v>906</v>
+      </c>
+      <c r="T6">
+        <v>2819</v>
+      </c>
+      <c r="U6">
+        <v>3725</v>
+      </c>
+      <c r="V6">
+        <v>2083</v>
+      </c>
+      <c r="W6">
+        <v>679</v>
+      </c>
+      <c r="X6">
+        <v>363</v>
+      </c>
+      <c r="Y6">
+        <v>1095</v>
+      </c>
+      <c r="Z6">
+        <v>1751</v>
+      </c>
+      <c r="AA6">
+        <v>9363</v>
+      </c>
+      <c r="AB6">
         <v>0.47599999999999998</v>
       </c>
-      <c r="F6">
+      <c r="AC6">
         <v>18</v>
       </c>
-      <c r="G6">
-        <v>114.2</v>
-      </c>
-      <c r="H6">
-        <v>115.3</v>
-      </c>
-      <c r="I6">
+      <c r="AD6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2264,22 +4372,85 @@
         <v>41</v>
       </c>
       <c r="E7">
+        <v>110.1</v>
+      </c>
+      <c r="F7">
+        <v>112.1</v>
+      </c>
+      <c r="G7">
+        <v>2943</v>
+      </c>
+      <c r="H7">
+        <v>6364</v>
+      </c>
+      <c r="I7">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="J7">
+        <v>914</v>
+      </c>
+      <c r="K7">
+        <v>2511</v>
+      </c>
+      <c r="L7">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="M7">
+        <v>2029</v>
+      </c>
+      <c r="N7">
+        <v>3853</v>
+      </c>
+      <c r="O7">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="P7">
+        <v>1127</v>
+      </c>
+      <c r="Q7">
+        <v>1464</v>
+      </c>
+      <c r="R7">
+        <v>0.77</v>
+      </c>
+      <c r="S7">
+        <v>695</v>
+      </c>
+      <c r="T7">
+        <v>2372</v>
+      </c>
+      <c r="U7">
+        <v>3067</v>
+      </c>
+      <c r="V7">
+        <v>1713</v>
+      </c>
+      <c r="W7">
+        <v>556</v>
+      </c>
+      <c r="X7">
+        <v>293</v>
+      </c>
+      <c r="Y7">
+        <v>1043</v>
+      </c>
+      <c r="Z7">
+        <v>1595</v>
+      </c>
+      <c r="AA7">
+        <v>7927</v>
+      </c>
+      <c r="AB7">
         <v>0.43099999999999999</v>
       </c>
-      <c r="F7">
+      <c r="AC7">
         <v>21.5</v>
       </c>
-      <c r="G7">
-        <v>110.1</v>
-      </c>
-      <c r="H7">
-        <v>112.1</v>
-      </c>
-      <c r="I7">
+      <c r="AD7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2293,22 +4464,85 @@
         <v>41</v>
       </c>
       <c r="E8">
+        <v>113.7</v>
+      </c>
+      <c r="F8">
+        <v>117.4</v>
+      </c>
+      <c r="G8">
+        <v>3067</v>
+      </c>
+      <c r="H8">
+        <v>6382</v>
+      </c>
+      <c r="I8">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="J8">
+        <v>874</v>
+      </c>
+      <c r="K8">
+        <v>2400</v>
+      </c>
+      <c r="L8">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="M8">
+        <v>2193</v>
+      </c>
+      <c r="N8">
+        <v>3982</v>
+      </c>
+      <c r="O8">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="P8">
+        <v>1181</v>
+      </c>
+      <c r="Q8">
+        <v>1585</v>
+      </c>
+      <c r="R8">
+        <v>0.745</v>
+      </c>
+      <c r="S8">
+        <v>674</v>
+      </c>
+      <c r="T8">
+        <v>2307</v>
+      </c>
+      <c r="U8">
+        <v>2981</v>
+      </c>
+      <c r="V8">
+        <v>1836</v>
+      </c>
+      <c r="W8">
+        <v>543</v>
+      </c>
+      <c r="X8">
+        <v>358</v>
+      </c>
+      <c r="Y8">
+        <v>963</v>
+      </c>
+      <c r="Z8">
+        <v>1400</v>
+      </c>
+      <c r="AA8">
+        <v>8189</v>
+      </c>
+      <c r="AB8">
         <v>0.43099999999999999</v>
       </c>
-      <c r="F8">
+      <c r="AC8">
         <v>20</v>
       </c>
-      <c r="G8">
-        <v>113.7</v>
-      </c>
-      <c r="H8">
-        <v>117.4</v>
-      </c>
-      <c r="I8">
+      <c r="AD8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2322,18 +4556,81 @@
         <v>52</v>
       </c>
       <c r="E9">
+        <v>110.3</v>
+      </c>
+      <c r="F9">
+        <v>115.8</v>
+      </c>
+      <c r="G9">
+        <v>3321</v>
+      </c>
+      <c r="H9">
+        <v>7223</v>
+      </c>
+      <c r="I9">
+        <v>0.46</v>
+      </c>
+      <c r="J9">
+        <v>937</v>
+      </c>
+      <c r="K9">
+        <v>2722</v>
+      </c>
+      <c r="L9">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="M9">
+        <v>2384</v>
+      </c>
+      <c r="N9">
+        <v>4501</v>
+      </c>
+      <c r="O9">
+        <v>0.53</v>
+      </c>
+      <c r="P9">
+        <v>1466</v>
+      </c>
+      <c r="Q9">
+        <v>1908</v>
+      </c>
+      <c r="R9">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="S9">
+        <v>784</v>
+      </c>
+      <c r="T9">
+        <v>2737</v>
+      </c>
+      <c r="U9">
+        <v>3521</v>
+      </c>
+      <c r="V9">
+        <v>1943</v>
+      </c>
+      <c r="W9">
+        <v>588</v>
+      </c>
+      <c r="X9">
+        <v>369</v>
+      </c>
+      <c r="Y9">
+        <v>1156</v>
+      </c>
+      <c r="Z9">
+        <v>1552</v>
+      </c>
+      <c r="AA9">
+        <v>9045</v>
+      </c>
+      <c r="AB9">
         <v>0.36599999999999999</v>
       </c>
-      <c r="F9">
+      <c r="AC9">
         <v>34</v>
       </c>
-      <c r="G9">
-        <v>110.3</v>
-      </c>
-      <c r="H9">
-        <v>115.8</v>
-      </c>
-      <c r="I9">
+      <c r="AD9">
         <v>5</v>
       </c>
     </row>
@@ -2345,44 +4642,107 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24242D2-17AD-4428-9235-DB0EF5D64651}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2396,22 +4756,22 @@
         <v>43</v>
       </c>
       <c r="E2">
+        <v>102.4</v>
+      </c>
+      <c r="F2">
+        <v>103.3</v>
+      </c>
+      <c r="AB2">
         <v>0.47599999999999998</v>
       </c>
-      <c r="F2">
+      <c r="AC2">
         <v>28</v>
       </c>
-      <c r="G2">
-        <v>102.4</v>
-      </c>
-      <c r="H2">
-        <v>103.3</v>
-      </c>
-      <c r="I2">
+      <c r="AD2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2425,22 +4785,22 @@
         <v>59</v>
       </c>
       <c r="E3">
+        <v>100.9</v>
+      </c>
+      <c r="F3">
+        <v>107.5</v>
+      </c>
+      <c r="AB3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F3">
+      <c r="AC3">
         <v>50</v>
       </c>
-      <c r="G3">
-        <v>100.9</v>
-      </c>
-      <c r="H3">
-        <v>107.5</v>
-      </c>
-      <c r="I3">
+      <c r="AD3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2454,22 +4814,22 @@
         <v>58</v>
       </c>
       <c r="E4">
+        <v>107.7</v>
+      </c>
+      <c r="F4">
+        <v>113.3</v>
+      </c>
+      <c r="AB4">
         <v>0.29299999999999998</v>
       </c>
-      <c r="F4">
+      <c r="AC4">
         <v>43</v>
       </c>
-      <c r="G4">
-        <v>107.7</v>
-      </c>
-      <c r="H4">
-        <v>113.3</v>
-      </c>
-      <c r="I4">
+      <c r="AD4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2483,22 +4843,22 @@
         <v>61</v>
       </c>
       <c r="E5">
+        <v>103.9</v>
+      </c>
+      <c r="F5">
+        <v>113.3</v>
+      </c>
+      <c r="AB5">
         <v>0.25600000000000001</v>
       </c>
-      <c r="F5">
+      <c r="AC5">
         <v>37</v>
       </c>
-      <c r="G5">
-        <v>103.9</v>
-      </c>
-      <c r="H5">
-        <v>113.3</v>
-      </c>
-      <c r="I5">
+      <c r="AD5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2512,22 +4872,22 @@
         <v>63</v>
       </c>
       <c r="E6">
+        <v>107.5</v>
+      </c>
+      <c r="F6">
+        <v>116.8</v>
+      </c>
+      <c r="AB6">
         <v>0.23200000000000001</v>
       </c>
-      <c r="F6">
+      <c r="AC6">
         <v>38</v>
       </c>
-      <c r="G6">
-        <v>107.5</v>
-      </c>
-      <c r="H6">
-        <v>116.8</v>
-      </c>
-      <c r="I6">
+      <c r="AD6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2541,22 +4901,22 @@
         <v>39</v>
       </c>
       <c r="E7">
+        <v>113.6</v>
+      </c>
+      <c r="F7">
+        <v>113.4</v>
+      </c>
+      <c r="AB7">
         <v>0.46600000000000003</v>
       </c>
-      <c r="F7">
+      <c r="AC7">
         <v>19</v>
       </c>
-      <c r="G7">
-        <v>113.6</v>
-      </c>
-      <c r="H7">
-        <v>113.4</v>
-      </c>
-      <c r="I7">
+      <c r="AD7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2570,22 +4930,85 @@
         <v>21</v>
       </c>
       <c r="E8">
+        <v>115.3</v>
+      </c>
+      <c r="F8">
+        <v>109.5</v>
+      </c>
+      <c r="G8">
+        <v>3118</v>
+      </c>
+      <c r="H8">
+        <v>6357</v>
+      </c>
+      <c r="I8">
+        <v>0.49</v>
+      </c>
+      <c r="J8">
+        <v>940</v>
+      </c>
+      <c r="K8">
+        <v>2490</v>
+      </c>
+      <c r="L8">
+        <v>0.378</v>
+      </c>
+      <c r="M8">
+        <v>2178</v>
+      </c>
+      <c r="N8">
+        <v>3867</v>
+      </c>
+      <c r="O8">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="P8">
+        <v>1124</v>
+      </c>
+      <c r="Q8">
+        <v>1347</v>
+      </c>
+      <c r="R8">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="S8">
+        <v>630</v>
+      </c>
+      <c r="T8">
+        <v>2462</v>
+      </c>
+      <c r="U8">
+        <v>3092</v>
+      </c>
+      <c r="V8">
+        <v>1939</v>
+      </c>
+      <c r="W8">
+        <v>517</v>
+      </c>
+      <c r="X8">
+        <v>312</v>
+      </c>
+      <c r="Y8">
+        <v>902</v>
+      </c>
+      <c r="Z8">
+        <v>1374</v>
+      </c>
+      <c r="AA8">
+        <v>8300</v>
+      </c>
+      <c r="AB8">
         <v>0.70799999999999996</v>
       </c>
-      <c r="F8" t="s">
+      <c r="AC8" t="s">
         <v>19</v>
       </c>
-      <c r="G8">
-        <v>115.3</v>
-      </c>
-      <c r="H8">
-        <v>109.5</v>
-      </c>
-      <c r="I8">
+      <c r="AD8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2599,18 +5022,81 @@
         <v>18</v>
       </c>
       <c r="E9">
+        <v>114.8</v>
+      </c>
+      <c r="F9">
+        <v>107.3</v>
+      </c>
+      <c r="G9">
+        <v>3581</v>
+      </c>
+      <c r="H9">
+        <v>7389</v>
+      </c>
+      <c r="I9">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="J9">
+        <v>951</v>
+      </c>
+      <c r="K9">
+        <v>2616</v>
+      </c>
+      <c r="L9">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="M9">
+        <v>2630</v>
+      </c>
+      <c r="N9">
+        <v>4773</v>
+      </c>
+      <c r="O9">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="P9">
+        <v>1303</v>
+      </c>
+      <c r="Q9">
+        <v>1635</v>
+      </c>
+      <c r="R9">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="S9">
+        <v>801</v>
+      </c>
+      <c r="T9">
+        <v>2913</v>
+      </c>
+      <c r="U9">
+        <v>3714</v>
+      </c>
+      <c r="V9">
+        <v>2244</v>
+      </c>
+      <c r="W9">
+        <v>702</v>
+      </c>
+      <c r="X9">
+        <v>359</v>
+      </c>
+      <c r="Y9">
+        <v>1060</v>
+      </c>
+      <c r="Z9">
+        <v>1633</v>
+      </c>
+      <c r="AA9">
+        <v>9416</v>
+      </c>
+      <c r="AB9">
         <v>0.78</v>
       </c>
-      <c r="F9" t="s">
+      <c r="AC9" t="s">
         <v>19</v>
       </c>
-      <c r="G9">
-        <v>114.8</v>
-      </c>
-      <c r="H9">
-        <v>107.3</v>
-      </c>
-      <c r="I9">
+      <c r="AD9">
         <v>1</v>
       </c>
     </row>
@@ -2628,9 +5114,9 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2659,7 +5145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2688,7 +5174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2717,7 +5203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2746,7 +5232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2775,7 +5261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2804,7 +5290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2833,7 +5319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2862,7 +5348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2905,9 +5391,9 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2936,7 +5422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2965,7 +5451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2994,7 +5480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3023,7 +5509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3052,7 +5538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3081,7 +5567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -3110,7 +5596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3139,7 +5625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3182,9 +5668,9 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3213,7 +5699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3242,7 +5728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3271,7 +5757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3300,7 +5786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3329,7 +5815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3358,7 +5844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -3387,7 +5873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3416,7 +5902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3459,9 +5945,9 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3490,7 +5976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3519,7 +6005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3548,7 +6034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3577,7 +6063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3606,7 +6092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3635,7 +6121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -3664,7 +6150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3693,7 +6179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3736,9 +6222,9 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3767,7 +6253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3796,7 +6282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3825,7 +6311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3854,7 +6340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3883,7 +6369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3912,7 +6398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -3941,7 +6427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3970,7 +6456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -4009,105 +6495,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996023BE-D0A2-4486-9ACC-15E30B75AD71}">
   <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="V1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="W1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
+      <c r="X1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="Y1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" t="s">
-        <v>44</v>
-      </c>
-      <c r="X1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>47</v>
-      </c>
       <c r="AA1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4199,7 +6685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -4291,7 +6777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -4383,7 +6869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -4475,7 +6961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -4567,7 +7053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -4659,7 +7145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -4751,7 +7237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -4843,7 +7329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -4872,7 +7358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -4901,7 +7387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -4930,7 +7416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -4959,7 +7445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -4988,7 +7474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -5017,7 +7503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -5046,7 +7532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -5075,7 +7561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -5119,9 +7605,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5150,7 +7636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5179,7 +7665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5208,7 +7694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -5237,7 +7723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -5266,7 +7752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -5295,7 +7781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -5324,7 +7810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -5353,7 +7839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -5396,9 +7882,9 @@
       <selection activeCell="I1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5427,7 +7913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5456,7 +7942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5485,7 +7971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -5514,7 +8000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -5543,7 +8029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -5572,7 +8058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -5601,7 +8087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -5630,7 +8116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -5673,9 +8159,9 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5704,7 +8190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5733,7 +8219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5762,7 +8248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -5791,7 +8277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -5820,7 +8306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -5849,7 +8335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -5878,7 +8364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -5907,7 +8393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -5950,9 +8436,9 @@
       <selection activeCell="I1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5981,7 +8467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6010,7 +8496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -6039,7 +8525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -6068,7 +8554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -6097,7 +8583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -6126,7 +8612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -6155,7 +8641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -6184,7 +8670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -6227,9 +8713,9 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6258,7 +8744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6287,7 +8773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -6316,7 +8802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -6345,7 +8831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -6374,7 +8860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -6403,7 +8889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -6432,7 +8918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -6461,7 +8947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -6504,9 +8990,9 @@
       <selection activeCell="I1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6535,7 +9021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6564,7 +9050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -6593,7 +9079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -6622,7 +9108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -6651,7 +9137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -6680,7 +9166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -6709,7 +9195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -6738,7 +9224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -6781,9 +9267,9 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6812,7 +9298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6841,7 +9327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -6870,7 +9356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -6899,7 +9385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -6928,7 +9414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -6957,7 +9443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -6986,7 +9472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -7015,7 +9501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -7058,9 +9544,9 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7089,7 +9575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7118,7 +9604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -7147,7 +9633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -7176,7 +9662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -7205,7 +9691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -7234,7 +9720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -7263,7 +9749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -7292,7 +9778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -7335,9 +9821,9 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7366,7 +9852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7395,7 +9881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -7424,7 +9910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -7453,7 +9939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -7482,7 +9968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -7511,7 +9997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -7540,7 +10026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -7569,7 +10055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -7612,9 +10098,9 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7643,7 +10129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7672,7 +10158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -7701,7 +10187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -7730,7 +10216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -7759,7 +10245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -7788,7 +10274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -7817,7 +10303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -7846,7 +10332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -7889,101 +10375,101 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="V1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="W1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
+      <c r="X1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="Y1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" t="s">
-        <v>44</v>
-      </c>
-      <c r="X1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>47</v>
-      </c>
       <c r="AA1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -8075,7 +10561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -8167,7 +10653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -8259,7 +10745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -8351,7 +10837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -8443,7 +10929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -8535,7 +11021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -8627,7 +11113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -8733,9 +11219,9 @@
       <selection activeCell="I1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8764,7 +11250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -8793,7 +11279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -8822,7 +11308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -8851,7 +11337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -8880,7 +11366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -8909,7 +11395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -8938,7 +11424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -8967,7 +11453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -9010,9 +11496,9 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9041,7 +11527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -9070,7 +11556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -9099,7 +11585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -9128,7 +11614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -9157,7 +11643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -9186,7 +11672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -9215,7 +11701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -9244,7 +11730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -9287,101 +11773,101 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="V1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="W1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
+      <c r="X1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="Y1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" t="s">
-        <v>44</v>
-      </c>
-      <c r="X1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>47</v>
-      </c>
       <c r="AA1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -9473,7 +11959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -9565,7 +12051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -9657,7 +12143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -9749,7 +12235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -9841,7 +12327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -9933,7 +12419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -10025,7 +12511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -10131,101 +12617,101 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="V1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="W1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
+      <c r="X1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="Y1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" t="s">
-        <v>44</v>
-      </c>
-      <c r="X1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>47</v>
-      </c>
       <c r="AA1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10317,7 +12803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -10409,7 +12895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -10501,7 +12987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -10593,7 +13079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -10685,7 +13171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -10777,7 +13263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -10869,7 +13355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -10975,101 +13461,101 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="V1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="W1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
+      <c r="X1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="Y1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" t="s">
-        <v>44</v>
-      </c>
-      <c r="X1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>47</v>
-      </c>
       <c r="AA1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11161,7 +13647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -11253,7 +13739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -11345,7 +13831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -11437,7 +13923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -11529,7 +14015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -11621,7 +14107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -11713,7 +14199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -11815,105 +14301,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A03ACC-9C5F-46C4-95FE-9EBC1065DE95}">
   <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:AA5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="V1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="W1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
+      <c r="X1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="Y1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" t="s">
-        <v>44</v>
-      </c>
-      <c r="X1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>47</v>
-      </c>
       <c r="AA1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11932,6 +14418,69 @@
       <c r="F2">
         <v>98.6</v>
       </c>
+      <c r="G2">
+        <v>3108</v>
+      </c>
+      <c r="H2">
+        <v>6795</v>
+      </c>
+      <c r="I2">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="J2">
+        <v>586</v>
+      </c>
+      <c r="K2">
+        <v>1583</v>
+      </c>
+      <c r="L2">
+        <v>0.37</v>
+      </c>
+      <c r="M2">
+        <v>2522</v>
+      </c>
+      <c r="N2">
+        <v>5212</v>
+      </c>
+      <c r="O2">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="P2">
+        <v>1345</v>
+      </c>
+      <c r="Q2">
+        <v>1790</v>
+      </c>
+      <c r="R2">
+        <v>0.751</v>
+      </c>
+      <c r="S2">
+        <v>942</v>
+      </c>
+      <c r="T2">
+        <v>2621</v>
+      </c>
+      <c r="U2">
+        <v>3563</v>
+      </c>
+      <c r="V2">
+        <v>1806</v>
+      </c>
+      <c r="W2">
+        <v>553</v>
+      </c>
+      <c r="X2">
+        <v>510</v>
+      </c>
+      <c r="Y2">
+        <v>1087</v>
+      </c>
+      <c r="Z2">
+        <v>1530</v>
+      </c>
+      <c r="AA2">
+        <v>8147</v>
+      </c>
       <c r="AB2">
         <v>0.54900000000000004</v>
       </c>
@@ -11942,7 +14491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -11961,6 +14510,69 @@
       <c r="F3">
         <v>106.5</v>
       </c>
+      <c r="G3">
+        <v>3153</v>
+      </c>
+      <c r="H3">
+        <v>7040</v>
+      </c>
+      <c r="I3">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="J3">
+        <v>702</v>
+      </c>
+      <c r="K3">
+        <v>1951</v>
+      </c>
+      <c r="L3">
+        <v>0.36</v>
+      </c>
+      <c r="M3">
+        <v>2451</v>
+      </c>
+      <c r="N3">
+        <v>5089</v>
+      </c>
+      <c r="O3">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="P3">
+        <v>1415</v>
+      </c>
+      <c r="Q3">
+        <v>1823</v>
+      </c>
+      <c r="R3">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="S3">
+        <v>782</v>
+      </c>
+      <c r="T3">
+        <v>2712</v>
+      </c>
+      <c r="U3">
+        <v>3494</v>
+      </c>
+      <c r="V3">
+        <v>1818</v>
+      </c>
+      <c r="W3">
+        <v>633</v>
+      </c>
+      <c r="X3">
+        <v>342</v>
+      </c>
+      <c r="Y3">
+        <v>1102</v>
+      </c>
+      <c r="Z3">
+        <v>1713</v>
+      </c>
+      <c r="AA3">
+        <v>8423</v>
+      </c>
       <c r="AB3">
         <v>0.36599999999999999</v>
       </c>
@@ -11971,7 +14583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -11990,6 +14602,69 @@
       <c r="F4" t="s">
         <v>9</v>
       </c>
+      <c r="G4">
+        <v>3210</v>
+      </c>
+      <c r="H4">
+        <v>7130</v>
+      </c>
+      <c r="I4">
+        <v>0.45</v>
+      </c>
+      <c r="J4">
+        <v>768</v>
+      </c>
+      <c r="K4">
+        <v>2196</v>
+      </c>
+      <c r="L4">
+        <v>0.35</v>
+      </c>
+      <c r="M4">
+        <v>2442</v>
+      </c>
+      <c r="N4">
+        <v>4934</v>
+      </c>
+      <c r="O4">
+        <v>0.495</v>
+      </c>
+      <c r="P4">
+        <v>1368</v>
+      </c>
+      <c r="Q4">
+        <v>1825</v>
+      </c>
+      <c r="R4">
+        <v>0.75</v>
+      </c>
+      <c r="S4">
+        <v>703</v>
+      </c>
+      <c r="T4">
+        <v>2879</v>
+      </c>
+      <c r="U4">
+        <v>3582</v>
+      </c>
+      <c r="V4">
+        <v>1869</v>
+      </c>
+      <c r="W4">
+        <v>638</v>
+      </c>
+      <c r="X4">
+        <v>453</v>
+      </c>
+      <c r="Y4">
+        <v>1054</v>
+      </c>
+      <c r="Z4">
+        <v>1490</v>
+      </c>
+      <c r="AA4">
+        <v>8556</v>
+      </c>
       <c r="AB4">
         <v>0.41499999999999998</v>
       </c>
@@ -12000,7 +14675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -12092,7 +14767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -12184,7 +14859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -12276,7 +14951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -12368,7 +15043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -12463,49 +15138,113 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CF17F1-F954-4188-8E19-6117D96E0B9B}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -12519,22 +15258,85 @@
         <v>27</v>
       </c>
       <c r="E2">
+        <v>103.2</v>
+      </c>
+      <c r="F2">
+        <v>97</v>
+      </c>
+      <c r="G2">
+        <v>3208</v>
+      </c>
+      <c r="H2">
+        <v>6854</v>
+      </c>
+      <c r="I2">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="J2">
+        <v>677</v>
+      </c>
+      <c r="K2">
+        <v>1847</v>
+      </c>
+      <c r="L2">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="M2">
+        <v>2531</v>
+      </c>
+      <c r="N2">
+        <v>5007</v>
+      </c>
+      <c r="O2">
+        <v>0.505</v>
+      </c>
+      <c r="P2">
+        <v>1368</v>
+      </c>
+      <c r="Q2">
+        <v>1754</v>
+      </c>
+      <c r="R2">
+        <v>0.78</v>
+      </c>
+      <c r="S2">
+        <v>806</v>
+      </c>
+      <c r="T2">
+        <v>2772</v>
+      </c>
+      <c r="U2">
+        <v>3578</v>
+      </c>
+      <c r="V2">
+        <v>2000</v>
+      </c>
+      <c r="W2">
+        <v>657</v>
+      </c>
+      <c r="X2">
+        <v>444</v>
+      </c>
+      <c r="Y2">
+        <v>1146</v>
+      </c>
+      <c r="Z2">
+        <v>1564</v>
+      </c>
+      <c r="AA2">
+        <v>8461</v>
+      </c>
+      <c r="AB2">
         <v>0.67100000000000004</v>
       </c>
-      <c r="F2">
+      <c r="AC2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>103.2</v>
-      </c>
-      <c r="H2">
-        <v>97</v>
-      </c>
-      <c r="I2">
+      <c r="AD2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -12548,22 +15350,85 @@
         <v>15</v>
       </c>
       <c r="E3">
+        <v>103.5</v>
+      </c>
+      <c r="F3">
+        <v>92.9</v>
+      </c>
+      <c r="G3">
+        <v>3289</v>
+      </c>
+      <c r="H3">
+        <v>6797</v>
+      </c>
+      <c r="I3">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="J3">
+        <v>570</v>
+      </c>
+      <c r="K3">
+        <v>1518</v>
+      </c>
+      <c r="L3">
+        <v>0.375</v>
+      </c>
+      <c r="M3">
+        <v>2719</v>
+      </c>
+      <c r="N3">
+        <v>5279</v>
+      </c>
+      <c r="O3">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="P3">
+        <v>1342</v>
+      </c>
+      <c r="Q3">
+        <v>1672</v>
+      </c>
+      <c r="R3">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="S3">
+        <v>770</v>
+      </c>
+      <c r="T3">
+        <v>2831</v>
+      </c>
+      <c r="U3">
+        <v>3601</v>
+      </c>
+      <c r="V3">
+        <v>2010</v>
+      </c>
+      <c r="W3">
+        <v>677</v>
+      </c>
+      <c r="X3">
+        <v>485</v>
+      </c>
+      <c r="Y3">
+        <v>1071</v>
+      </c>
+      <c r="Z3">
+        <v>1433</v>
+      </c>
+      <c r="AA3">
+        <v>8490</v>
+      </c>
+      <c r="AB3">
         <v>0.81699999999999995</v>
       </c>
-      <c r="F3">
+      <c r="AC3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>103.5</v>
-      </c>
-      <c r="H3">
-        <v>92.9</v>
-      </c>
-      <c r="I3">
+      <c r="AD3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -12577,22 +15442,85 @@
         <v>21</v>
       </c>
       <c r="E4">
+        <v>105.3</v>
+      </c>
+      <c r="F4">
+        <v>98.1</v>
+      </c>
+      <c r="G4">
+        <v>3222</v>
+      </c>
+      <c r="H4">
+        <v>6864</v>
+      </c>
+      <c r="I4">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="J4">
+        <v>753</v>
+      </c>
+      <c r="K4">
+        <v>1927</v>
+      </c>
+      <c r="L4">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="M4">
+        <v>2469</v>
+      </c>
+      <c r="N4">
+        <v>4937</v>
+      </c>
+      <c r="O4">
+        <v>0.5</v>
+      </c>
+      <c r="P4">
+        <v>1440</v>
+      </c>
+      <c r="Q4">
+        <v>1806</v>
+      </c>
+      <c r="R4">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="S4">
+        <v>821</v>
+      </c>
+      <c r="T4">
+        <v>2777</v>
+      </c>
+      <c r="U4">
+        <v>3598</v>
+      </c>
+      <c r="V4">
+        <v>1954</v>
+      </c>
+      <c r="W4">
+        <v>655</v>
+      </c>
+      <c r="X4">
+        <v>484</v>
+      </c>
+      <c r="Y4">
+        <v>1101</v>
+      </c>
+      <c r="Z4">
+        <v>1498</v>
+      </c>
+      <c r="AA4">
+        <v>8637</v>
+      </c>
+      <c r="AB4">
         <v>0.74399999999999999</v>
       </c>
-      <c r="F4">
+      <c r="AC4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>105.3</v>
-      </c>
-      <c r="H4">
-        <v>98.1</v>
-      </c>
-      <c r="I4">
+      <c r="AD4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -12606,22 +15534,85 @@
         <v>60</v>
       </c>
       <c r="E5">
+        <v>99.3</v>
+      </c>
+      <c r="F5">
+        <v>105.5</v>
+      </c>
+      <c r="G5">
+        <v>3202</v>
+      </c>
+      <c r="H5">
+        <v>6999</v>
+      </c>
+      <c r="I5">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="J5">
+        <v>696</v>
+      </c>
+      <c r="K5">
+        <v>1977</v>
+      </c>
+      <c r="L5">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="M5">
+        <v>2506</v>
+      </c>
+      <c r="N5">
+        <v>5022</v>
+      </c>
+      <c r="O5">
+        <v>0.499</v>
+      </c>
+      <c r="P5">
+        <v>1324</v>
+      </c>
+      <c r="Q5">
+        <v>1715</v>
+      </c>
+      <c r="R5">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="S5">
+        <v>849</v>
+      </c>
+      <c r="T5">
+        <v>2777</v>
+      </c>
+      <c r="U5">
+        <v>3626</v>
+      </c>
+      <c r="V5">
+        <v>1868</v>
+      </c>
+      <c r="W5">
+        <v>628</v>
+      </c>
+      <c r="X5">
+        <v>460</v>
+      </c>
+      <c r="Y5">
+        <v>1078</v>
+      </c>
+      <c r="Z5">
+        <v>1408</v>
+      </c>
+      <c r="AA5">
+        <v>8424</v>
+      </c>
+      <c r="AB5">
         <v>0.26800000000000002</v>
       </c>
-      <c r="F5">
+      <c r="AC5">
         <v>43</v>
       </c>
-      <c r="G5">
-        <v>99.3</v>
-      </c>
-      <c r="H5">
-        <v>105.5</v>
-      </c>
-      <c r="I5">
+      <c r="AD5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -12635,22 +15626,85 @@
         <v>34</v>
       </c>
       <c r="E6">
+        <v>111.7</v>
+      </c>
+      <c r="F6">
+        <v>110</v>
+      </c>
+      <c r="G6">
+        <v>3468</v>
+      </c>
+      <c r="H6">
+        <v>7248</v>
+      </c>
+      <c r="I6">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="J6">
+        <v>812</v>
+      </c>
+      <c r="K6">
+        <v>2071</v>
+      </c>
+      <c r="L6">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="M6">
+        <v>2656</v>
+      </c>
+      <c r="N6">
+        <v>5177</v>
+      </c>
+      <c r="O6">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="P6">
+        <v>1408</v>
+      </c>
+      <c r="Q6">
+        <v>1720</v>
+      </c>
+      <c r="R6">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="S6">
+        <v>757</v>
+      </c>
+      <c r="T6">
+        <v>2910</v>
+      </c>
+      <c r="U6">
+        <v>3667</v>
+      </c>
+      <c r="V6">
+        <v>2013</v>
+      </c>
+      <c r="W6">
+        <v>501</v>
+      </c>
+      <c r="X6">
+        <v>386</v>
+      </c>
+      <c r="Y6">
+        <v>992</v>
+      </c>
+      <c r="Z6">
+        <v>1487</v>
+      </c>
+      <c r="AA6">
+        <v>9156</v>
+      </c>
+      <c r="AB6">
         <v>0.58499999999999996</v>
       </c>
-      <c r="F6">
+      <c r="AC6">
         <v>5</v>
       </c>
-      <c r="G6">
-        <v>111.7</v>
-      </c>
-      <c r="H6">
-        <v>110</v>
-      </c>
-      <c r="I6">
+      <c r="AD6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -12664,22 +15718,85 @@
         <v>39</v>
       </c>
       <c r="E7">
+        <v>114.1</v>
+      </c>
+      <c r="F7">
+        <v>115.2</v>
+      </c>
+      <c r="G7">
+        <v>2995</v>
+      </c>
+      <c r="H7">
+        <v>6350</v>
+      </c>
+      <c r="I7">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="J7">
+        <v>760</v>
+      </c>
+      <c r="K7">
+        <v>2021</v>
+      </c>
+      <c r="L7">
+        <v>0.376</v>
+      </c>
+      <c r="M7">
+        <v>2235</v>
+      </c>
+      <c r="N7">
+        <v>4329</v>
+      </c>
+      <c r="O7">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="P7">
+        <v>1348</v>
+      </c>
+      <c r="Q7">
+        <v>1664</v>
+      </c>
+      <c r="R7">
+        <v>0.81</v>
+      </c>
+      <c r="S7">
+        <v>640</v>
+      </c>
+      <c r="T7">
+        <v>2530</v>
+      </c>
+      <c r="U7">
+        <v>3170</v>
+      </c>
+      <c r="V7">
+        <v>1751</v>
+      </c>
+      <c r="W7">
+        <v>518</v>
+      </c>
+      <c r="X7">
+        <v>390</v>
+      </c>
+      <c r="Y7">
+        <v>895</v>
+      </c>
+      <c r="Z7">
+        <v>1377</v>
+      </c>
+      <c r="AA7">
+        <v>8098</v>
+      </c>
+      <c r="AB7">
         <v>0.45100000000000001</v>
       </c>
-      <c r="F7">
+      <c r="AC7">
         <v>11.5</v>
       </c>
-      <c r="G7">
-        <v>114.1</v>
-      </c>
-      <c r="H7">
-        <v>115.2</v>
-      </c>
-      <c r="I7">
+      <c r="AD7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -12693,22 +15810,85 @@
         <v>39</v>
       </c>
       <c r="E8">
+        <v>111.1</v>
+      </c>
+      <c r="F8">
+        <v>112.8</v>
+      </c>
+      <c r="G8">
+        <v>3014</v>
+      </c>
+      <c r="H8">
+        <v>6518</v>
+      </c>
+      <c r="I8">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="J8">
+        <v>716</v>
+      </c>
+      <c r="K8">
+        <v>2046</v>
+      </c>
+      <c r="L8">
+        <v>0.35</v>
+      </c>
+      <c r="M8">
+        <v>2298</v>
+      </c>
+      <c r="N8">
+        <v>4472</v>
+      </c>
+      <c r="O8">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="P8">
+        <v>1254</v>
+      </c>
+      <c r="Q8">
+        <v>1584</v>
+      </c>
+      <c r="R8">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="S8">
+        <v>669</v>
+      </c>
+      <c r="T8">
+        <v>2489</v>
+      </c>
+      <c r="U8">
+        <v>3158</v>
+      </c>
+      <c r="V8">
+        <v>1759</v>
+      </c>
+      <c r="W8">
+        <v>505</v>
+      </c>
+      <c r="X8">
+        <v>366</v>
+      </c>
+      <c r="Y8">
+        <v>821</v>
+      </c>
+      <c r="Z8">
+        <v>1293</v>
+      </c>
+      <c r="AA8">
+        <v>7998</v>
+      </c>
+      <c r="AB8">
         <v>0.45800000000000002</v>
       </c>
-      <c r="F8">
+      <c r="AC8">
         <v>9</v>
       </c>
-      <c r="G8">
-        <v>111.1</v>
-      </c>
-      <c r="H8">
-        <v>112.8</v>
-      </c>
-      <c r="I8">
+      <c r="AD8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -12722,18 +15902,81 @@
         <v>48</v>
       </c>
       <c r="E9">
+        <v>113.2</v>
+      </c>
+      <c r="F9">
+        <v>113</v>
+      </c>
+      <c r="G9">
+        <v>3546</v>
+      </c>
+      <c r="H9">
+        <v>7601</v>
+      </c>
+      <c r="I9">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="J9">
+        <v>925</v>
+      </c>
+      <c r="K9">
+        <v>2626</v>
+      </c>
+      <c r="L9">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="M9">
+        <v>2621</v>
+      </c>
+      <c r="N9">
+        <v>4975</v>
+      </c>
+      <c r="O9">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="P9">
+        <v>1262</v>
+      </c>
+      <c r="Q9">
+        <v>1673</v>
+      </c>
+      <c r="R9">
+        <v>0.754</v>
+      </c>
+      <c r="S9">
+        <v>901</v>
+      </c>
+      <c r="T9">
+        <v>2815</v>
+      </c>
+      <c r="U9">
+        <v>3716</v>
+      </c>
+      <c r="V9">
+        <v>2289</v>
+      </c>
+      <c r="W9">
+        <v>626</v>
+      </c>
+      <c r="X9">
+        <v>403</v>
+      </c>
+      <c r="Y9">
+        <v>1042</v>
+      </c>
+      <c r="Z9">
+        <v>1483</v>
+      </c>
+      <c r="AA9">
+        <v>9279</v>
+      </c>
+      <c r="AB9">
         <v>0.41499999999999998</v>
       </c>
-      <c r="F9">
+      <c r="AC9">
         <v>22</v>
       </c>
-      <c r="G9">
-        <v>113.2</v>
-      </c>
-      <c r="H9">
-        <v>113</v>
-      </c>
-      <c r="I9">
+      <c r="AD9">
         <v>4</v>
       </c>
     </row>
@@ -12745,44 +15988,107 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01B770C-153D-4FEE-9864-933C9D05EA18}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -12796,22 +16102,85 @@
         <v>27</v>
       </c>
       <c r="E2">
+        <v>98.3</v>
+      </c>
+      <c r="F2">
+        <v>95.1</v>
+      </c>
+      <c r="G2">
+        <v>3097</v>
+      </c>
+      <c r="H2">
+        <v>6763</v>
+      </c>
+      <c r="I2">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="J2">
+        <v>423</v>
+      </c>
+      <c r="K2">
+        <v>1246</v>
+      </c>
+      <c r="L2">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="M2">
+        <v>2674</v>
+      </c>
+      <c r="N2">
+        <v>5517</v>
+      </c>
+      <c r="O2">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="P2">
+        <v>1445</v>
+      </c>
+      <c r="Q2">
+        <v>1869</v>
+      </c>
+      <c r="R2">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="S2">
+        <v>856</v>
+      </c>
+      <c r="T2">
+        <v>2634</v>
+      </c>
+      <c r="U2">
+        <v>3490</v>
+      </c>
+      <c r="V2">
+        <v>1777</v>
+      </c>
+      <c r="W2">
+        <v>700</v>
+      </c>
+      <c r="X2">
+        <v>347</v>
+      </c>
+      <c r="Y2">
+        <v>1094</v>
+      </c>
+      <c r="Z2">
+        <v>1567</v>
+      </c>
+      <c r="AA2">
+        <v>8062</v>
+      </c>
+      <c r="AB2">
         <v>0.67100000000000004</v>
       </c>
-      <c r="F2">
+      <c r="AC2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>98.3</v>
-      </c>
-      <c r="H2">
-        <v>95.1</v>
-      </c>
-      <c r="I2">
+      <c r="AD2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -12825,22 +16194,85 @@
         <v>40</v>
       </c>
       <c r="E3">
+        <v>99.1</v>
+      </c>
+      <c r="F3">
+        <v>101.3</v>
+      </c>
+      <c r="G3">
+        <v>3019</v>
+      </c>
+      <c r="H3">
+        <v>6859</v>
+      </c>
+      <c r="I3">
+        <v>0.44</v>
+      </c>
+      <c r="J3">
+        <v>504</v>
+      </c>
+      <c r="K3">
+        <v>1521</v>
+      </c>
+      <c r="L3">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="M3">
+        <v>2515</v>
+      </c>
+      <c r="N3">
+        <v>5338</v>
+      </c>
+      <c r="O3">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="P3">
+        <v>1584</v>
+      </c>
+      <c r="Q3">
+        <v>2024</v>
+      </c>
+      <c r="R3">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="S3">
+        <v>916</v>
+      </c>
+      <c r="T3">
+        <v>2497</v>
+      </c>
+      <c r="U3">
+        <v>3413</v>
+      </c>
+      <c r="V3">
+        <v>1697</v>
+      </c>
+      <c r="W3">
+        <v>724</v>
+      </c>
+      <c r="X3">
+        <v>350</v>
+      </c>
+      <c r="Y3">
+        <v>1090</v>
+      </c>
+      <c r="Z3">
+        <v>1783</v>
+      </c>
+      <c r="AA3">
+        <v>8126</v>
+      </c>
+      <c r="AB3">
         <v>0.51200000000000001</v>
       </c>
-      <c r="F3">
+      <c r="AC3">
         <v>25</v>
       </c>
-      <c r="G3">
-        <v>99.1</v>
-      </c>
-      <c r="H3">
-        <v>101.3</v>
-      </c>
-      <c r="I3">
+      <c r="AD3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -12854,22 +16286,85 @@
         <v>39</v>
       </c>
       <c r="E4">
+        <v>100.5</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>2984</v>
+      </c>
+      <c r="H4">
+        <v>6854</v>
+      </c>
+      <c r="I4">
+        <v>0.435</v>
+      </c>
+      <c r="J4">
+        <v>767</v>
+      </c>
+      <c r="K4">
+        <v>2169</v>
+      </c>
+      <c r="L4">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="M4">
+        <v>2217</v>
+      </c>
+      <c r="N4">
+        <v>4685</v>
+      </c>
+      <c r="O4">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="P4">
+        <v>1504</v>
+      </c>
+      <c r="Q4">
+        <v>1918</v>
+      </c>
+      <c r="R4">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="S4">
+        <v>886</v>
+      </c>
+      <c r="T4">
+        <v>2621</v>
+      </c>
+      <c r="U4">
+        <v>3507</v>
+      </c>
+      <c r="V4">
+        <v>1744</v>
+      </c>
+      <c r="W4">
+        <v>653</v>
+      </c>
+      <c r="X4">
+        <v>344</v>
+      </c>
+      <c r="Y4">
+        <v>1059</v>
+      </c>
+      <c r="Z4">
+        <v>1840</v>
+      </c>
+      <c r="AA4">
+        <v>8239</v>
+      </c>
+      <c r="AB4">
         <v>0.52400000000000002</v>
       </c>
-      <c r="F4">
+      <c r="AC4">
         <v>18</v>
       </c>
-      <c r="G4">
-        <v>100.5</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4">
+      <c r="AD4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -12883,22 +16378,85 @@
         <v>60</v>
       </c>
       <c r="E5">
+        <v>99.3</v>
+      </c>
+      <c r="F5">
+        <v>105.5</v>
+      </c>
+      <c r="G5">
+        <v>3013</v>
+      </c>
+      <c r="H5">
+        <v>6788</v>
+      </c>
+      <c r="I5">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="J5">
+        <v>758</v>
+      </c>
+      <c r="K5">
+        <v>2152</v>
+      </c>
+      <c r="L5">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="M5">
+        <v>2255</v>
+      </c>
+      <c r="N5">
+        <v>4636</v>
+      </c>
+      <c r="O5">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="P5">
+        <v>1361</v>
+      </c>
+      <c r="Q5">
+        <v>1732</v>
+      </c>
+      <c r="R5">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="S5">
+        <v>779</v>
+      </c>
+      <c r="T5">
+        <v>2544</v>
+      </c>
+      <c r="U5">
+        <v>3323</v>
+      </c>
+      <c r="V5">
+        <v>1767</v>
+      </c>
+      <c r="W5">
+        <v>613</v>
+      </c>
+      <c r="X5">
+        <v>396</v>
+      </c>
+      <c r="Y5">
+        <v>1227</v>
+      </c>
+      <c r="Z5">
+        <v>1900</v>
+      </c>
+      <c r="AA5">
+        <v>8145</v>
+      </c>
+      <c r="AB5">
         <v>0.26800000000000002</v>
       </c>
-      <c r="F5">
+      <c r="AC5">
         <v>43</v>
       </c>
-      <c r="G5">
-        <v>99.3</v>
-      </c>
-      <c r="H5">
-        <v>105.5</v>
-      </c>
-      <c r="I5">
+      <c r="AD5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -12912,22 +16470,85 @@
         <v>49</v>
       </c>
       <c r="E6">
+        <v>103.5</v>
+      </c>
+      <c r="F6">
+        <v>106.1</v>
+      </c>
+      <c r="G6">
+        <v>3113</v>
+      </c>
+      <c r="H6">
+        <v>6924</v>
+      </c>
+      <c r="I6">
+        <v>0.45</v>
+      </c>
+      <c r="J6">
+        <v>811</v>
+      </c>
+      <c r="K6">
+        <v>2368</v>
+      </c>
+      <c r="L6">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="M6">
+        <v>2302</v>
+      </c>
+      <c r="N6">
+        <v>4556</v>
+      </c>
+      <c r="O6">
+        <v>0.505</v>
+      </c>
+      <c r="P6">
+        <v>1453</v>
+      </c>
+      <c r="Q6">
+        <v>1882</v>
+      </c>
+      <c r="R6">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="S6">
+        <v>723</v>
+      </c>
+      <c r="T6">
+        <v>2703</v>
+      </c>
+      <c r="U6">
+        <v>3426</v>
+      </c>
+      <c r="V6">
+        <v>1963</v>
+      </c>
+      <c r="W6">
+        <v>684</v>
+      </c>
+      <c r="X6">
+        <v>448</v>
+      </c>
+      <c r="Y6">
+        <v>1147</v>
+      </c>
+      <c r="Z6">
+        <v>1801</v>
+      </c>
+      <c r="AA6">
+        <v>8490</v>
+      </c>
+      <c r="AB6">
         <v>0.40200000000000002</v>
       </c>
-      <c r="F6">
+      <c r="AC6">
         <v>20</v>
       </c>
-      <c r="G6">
-        <v>103.5</v>
-      </c>
-      <c r="H6">
-        <v>106.1</v>
-      </c>
-      <c r="I6">
+      <c r="AD6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -12941,22 +16562,85 @@
         <v>39</v>
       </c>
       <c r="E7">
+        <v>112.6</v>
+      </c>
+      <c r="F7">
+        <v>113.7</v>
+      </c>
+      <c r="G7">
+        <v>3106</v>
+      </c>
+      <c r="H7">
+        <v>6634</v>
+      </c>
+      <c r="I7">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="J7">
+        <v>798</v>
+      </c>
+      <c r="K7">
+        <v>2297</v>
+      </c>
+      <c r="L7">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="M7">
+        <v>2308</v>
+      </c>
+      <c r="N7">
+        <v>4337</v>
+      </c>
+      <c r="O7">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="P7">
+        <v>1212</v>
+      </c>
+      <c r="Q7">
+        <v>1589</v>
+      </c>
+      <c r="R7">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="S7">
+        <v>754</v>
+      </c>
+      <c r="T7">
+        <v>2643</v>
+      </c>
+      <c r="U7">
+        <v>3397</v>
+      </c>
+      <c r="V7">
+        <v>1965</v>
+      </c>
+      <c r="W7">
+        <v>576</v>
+      </c>
+      <c r="X7">
+        <v>398</v>
+      </c>
+      <c r="Y7">
+        <v>1113</v>
+      </c>
+      <c r="Z7">
+        <v>1546</v>
+      </c>
+      <c r="AA7">
+        <v>8222</v>
+      </c>
+      <c r="AB7">
         <v>0.46600000000000003</v>
       </c>
-      <c r="F7">
+      <c r="AC7">
         <v>10.5</v>
       </c>
-      <c r="G7">
-        <v>112.6</v>
-      </c>
-      <c r="H7">
-        <v>113.7</v>
-      </c>
-      <c r="I7">
+      <c r="AD7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -12970,22 +16654,85 @@
         <v>34</v>
       </c>
       <c r="E8">
+        <v>113.3</v>
+      </c>
+      <c r="F8">
+        <v>112.3</v>
+      </c>
+      <c r="G8">
+        <v>3085</v>
+      </c>
+      <c r="H8">
+        <v>6608</v>
+      </c>
+      <c r="I8">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="J8">
+        <v>803</v>
+      </c>
+      <c r="K8">
+        <v>2258</v>
+      </c>
+      <c r="L8">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="M8">
+        <v>2282</v>
+      </c>
+      <c r="N8">
+        <v>4350</v>
+      </c>
+      <c r="O8">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="P8">
+        <v>1184</v>
+      </c>
+      <c r="Q8">
+        <v>1536</v>
+      </c>
+      <c r="R8">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="S8">
+        <v>803</v>
+      </c>
+      <c r="T8">
+        <v>2543</v>
+      </c>
+      <c r="U8">
+        <v>3346</v>
+      </c>
+      <c r="V8">
+        <v>1938</v>
+      </c>
+      <c r="W8">
+        <v>655</v>
+      </c>
+      <c r="X8">
+        <v>364</v>
+      </c>
+      <c r="Y8">
+        <v>957</v>
+      </c>
+      <c r="Z8">
+        <v>1349</v>
+      </c>
+      <c r="AA8">
+        <v>8157</v>
+      </c>
+      <c r="AB8">
         <v>0.52800000000000002</v>
       </c>
-      <c r="F8">
+      <c r="AC8">
         <v>4</v>
       </c>
-      <c r="G8">
-        <v>113.3</v>
-      </c>
-      <c r="H8">
-        <v>112.3</v>
-      </c>
-      <c r="I8">
+      <c r="AD8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -12999,23 +16746,87 @@
         <v>26</v>
       </c>
       <c r="E9">
+        <v>115.6</v>
+      </c>
+      <c r="F9">
+        <v>109.9</v>
+      </c>
+      <c r="G9">
+        <v>3571</v>
+      </c>
+      <c r="H9">
+        <v>7739</v>
+      </c>
+      <c r="I9">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="J9">
+        <v>945</v>
+      </c>
+      <c r="K9">
+        <v>2679</v>
+      </c>
+      <c r="L9">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="M9">
+        <v>2626</v>
+      </c>
+      <c r="N9">
+        <v>5060</v>
+      </c>
+      <c r="O9">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="P9">
+        <v>1393</v>
+      </c>
+      <c r="Q9">
+        <v>1898</v>
+      </c>
+      <c r="R9">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="S9">
+        <v>1159</v>
+      </c>
+      <c r="T9">
+        <v>2873</v>
+      </c>
+      <c r="U9">
+        <v>4032</v>
+      </c>
+      <c r="V9">
+        <v>2131</v>
+      </c>
+      <c r="W9">
+        <v>800</v>
+      </c>
+      <c r="X9">
+        <v>533</v>
+      </c>
+      <c r="Y9">
+        <v>1082</v>
+      </c>
+      <c r="Z9">
+        <v>1620</v>
+      </c>
+      <c r="AA9">
+        <v>9480</v>
+      </c>
+      <c r="AB9">
         <v>0.68300000000000005</v>
       </c>
-      <c r="F9" t="s">
+      <c r="AC9" t="s">
         <v>19</v>
       </c>
-      <c r="G9">
-        <v>115.6</v>
-      </c>
-      <c r="H9">
-        <v>109.9</v>
-      </c>
-      <c r="I9">
+      <c r="AD9">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/nbateamsdata.xlsx
+++ b/nbateamsdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NICK朱\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FE2048-3D4B-4765-AC03-AEF32CE52833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4864E9-C066-440F-ADDD-4B2005907A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" tabRatio="929" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League Average" sheetId="33" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="58">
   <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,10 +153,6 @@
   </si>
   <si>
     <t>21-22</t>
-  </si>
-  <si>
-    <t>YEAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>年度</t>
@@ -640,78 +636,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9516D3-92E1-40B5-9638-71BBB01F2791}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:V1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>45</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>46</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>51</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>52</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>53</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>54</v>
-      </c>
-      <c r="V1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -1272,98 +1266,98 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>47</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>48</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>49</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>51</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>57</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
@@ -2116,98 +2110,98 @@
       <selection activeCell="F1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>47</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>48</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>49</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>51</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>57</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
@@ -2960,98 +2954,98 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>47</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>48</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>49</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>51</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>57</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
@@ -3804,98 +3798,98 @@
       <selection activeCell="D1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>47</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>48</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>49</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>51</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>57</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
@@ -4648,98 +4642,98 @@
       <selection activeCell="G1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>47</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>48</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>49</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>51</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>57</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
@@ -5114,7 +5108,7 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -5391,7 +5385,7 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -5668,7 +5662,7 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -5945,7 +5939,7 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -6222,7 +6216,7 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -6495,102 +6489,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996023BE-D0A2-4486-9ACC-15E30B75AD71}">
   <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>47</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>48</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>49</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>51</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>57</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
@@ -7329,7 +7323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" ht="15.05" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -7358,7 +7352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="15.05" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -7387,7 +7381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="15.05" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -7416,7 +7410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="15.05" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -7445,7 +7439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="15.05" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -7474,7 +7468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="15.05" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -7503,7 +7497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="15.05" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -7532,7 +7526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="15.05" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -7561,7 +7555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="15.05" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -7605,7 +7599,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -7882,7 +7876,7 @@
       <selection activeCell="I1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -8159,7 +8153,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -8436,7 +8430,7 @@
       <selection activeCell="I1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -8713,7 +8707,7 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -8990,7 +8984,7 @@
       <selection activeCell="I1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -9267,7 +9261,7 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -9544,7 +9538,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -9821,7 +9815,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -10098,7 +10092,7 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -10375,98 +10369,98 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>47</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>48</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>49</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>51</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>57</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
@@ -11219,7 +11213,7 @@
       <selection activeCell="I1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -11496,7 +11490,7 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -11773,98 +11767,98 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>47</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>48</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>49</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>51</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>57</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
@@ -12617,98 +12611,98 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>47</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>48</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>49</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>51</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>57</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
@@ -13461,98 +13455,98 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>47</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>48</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>49</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>51</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>57</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
@@ -14305,98 +14299,98 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>47</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>48</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>49</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>51</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>57</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
@@ -15150,98 +15144,98 @@
       <selection activeCell="E1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>47</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>48</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>49</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>51</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>57</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
@@ -15994,98 +15988,98 @@
       <selection activeCell="F1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>47</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>48</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>49</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>51</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>57</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
